--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE553C9-C857-4667-AB98-9F29F9B40C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5218A2D4-D682-48FC-8CC5-4CC71E47A8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -5700,7 +5700,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5730,7 +5730,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>1.3402301076840838E-2</v>
+        <v>1.3348146058893487E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -6902,13 +6902,27 @@
         <v>-1.2719500000000217E-2</v>
       </c>
       <c r="E60">
-        <f t="shared" ref="E60" si="32">IF(D60&lt;0,1,0)</f>
+        <f t="shared" ref="E60:E61" si="32">IF(D60&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>45243</v>
+      </c>
+      <c r="B61">
+        <v>4.1352060000000002</v>
+      </c>
       <c r="C61">
         <v>4.1250530000000003</v>
+      </c>
+      <c r="D61">
+        <f>B61-C61</f>
+        <v>1.0152999999999857E-2</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="32"/>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="6:6">
@@ -8064,7 +8078,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C336" sqref="C336"/>
+      <selection pane="bottomLeft" activeCell="B335" sqref="B335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8094,7 +8108,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4579917168772121E-2</v>
+        <v>-1.4638802147308731E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -14494,7 +14508,7 @@
         <v>1.4142699999999842E-2</v>
       </c>
       <c r="E334">
-        <f t="shared" ref="E334" si="65">IF(D334&lt;0,1,0)</f>
+        <f t="shared" ref="E334:E335" si="65">IF(D334&lt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="F334">
@@ -14506,8 +14520,29 @@
       </c>
     </row>
     <row r="335" spans="1:7">
+      <c r="A335" s="1">
+        <v>45243</v>
+      </c>
+      <c r="B335">
+        <v>4.4203900000000003</v>
+      </c>
       <c r="C335">
         <v>4.4546374999999996</v>
+      </c>
+      <c r="D335">
+        <f>B335-C335</f>
+        <v>-3.424749999999932E-2</v>
+      </c>
+      <c r="E335">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="F335">
+        <v>4.4752999999999998</v>
+      </c>
+      <c r="G335">
+        <f>B335-F335</f>
+        <v>-5.490999999999957E-2</v>
       </c>
     </row>
   </sheetData>
@@ -16720,7 +16755,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17030,8 +17065,8 @@
       <c r="A28" s="1">
         <v>45243</v>
       </c>
-      <c r="B28" t="s">
-        <v>56</v>
+      <c r="B28">
+        <v>4.4203900000000003</v>
       </c>
       <c r="C28">
         <v>4.4397197000000004</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5218A2D4-D682-48FC-8CC5-4CC71E47A8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D8F107-925E-47AA-862C-771F34AB8430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -5698,9 +5698,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5730,7 +5730,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>1.3348146058893487E-2</v>
+        <v>1.3835537107108357E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -6902,7 +6902,7 @@
         <v>-1.2719500000000217E-2</v>
       </c>
       <c r="E60">
-        <f t="shared" ref="E60:E61" si="32">IF(D60&lt;0,1,0)</f>
+        <f t="shared" ref="E60:E62" si="32">IF(D60&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6923,6 +6923,30 @@
       <c r="E61">
         <f t="shared" si="32"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B62">
+        <v>4.1337000000000002</v>
+      </c>
+      <c r="C62">
+        <v>4.0906209999999996</v>
+      </c>
+      <c r="D62">
+        <f>B62-C62</f>
+        <v>4.3079000000000534E-2</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="C63">
+        <v>4.1189536999999996</v>
       </c>
     </row>
     <row r="77" spans="6:6">
@@ -8074,11 +8098,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I335"/>
+  <dimension ref="A1:I337"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B335" sqref="B335"/>
+      <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B336" sqref="B336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8108,7 +8132,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4638802147308731E-2</v>
+        <v>-1.4742617663286913E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -14508,7 +14532,7 @@
         <v>1.4142699999999842E-2</v>
       </c>
       <c r="E334">
-        <f t="shared" ref="E334:E335" si="65">IF(D334&lt;0,1,0)</f>
+        <f t="shared" ref="E334:E336" si="65">IF(D334&lt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="F334">
@@ -14543,6 +14567,37 @@
       <c r="G335">
         <f>B335-F335</f>
         <v>-5.490999999999957E-2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B336">
+        <v>4.4245599999999996</v>
+      </c>
+      <c r="C336">
+        <v>4.4739769999999996</v>
+      </c>
+      <c r="D336">
+        <f>B336-C336</f>
+        <v>-4.9417000000000044E-2</v>
+      </c>
+      <c r="E336">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="F336">
+        <v>4.4639670000000002</v>
+      </c>
+      <c r="G336">
+        <f>B336-F336</f>
+        <v>-3.9407000000000636E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="3:3">
+      <c r="C337">
+        <v>4.4334319999999998</v>
       </c>
     </row>
   </sheetData>
@@ -16754,8 +16809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17076,8 +17131,8 @@
       <c r="A29" s="1">
         <v>45244</v>
       </c>
-      <c r="B29" t="s">
-        <v>56</v>
+      <c r="B29">
+        <v>4.4245599999999996</v>
       </c>
       <c r="C29">
         <v>4.4373930000000001</v>
@@ -17123,18 +17178,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -17153,10 +17208,18 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>45239</v>
+        <v>45243</v>
       </c>
       <c r="B2">
-        <v>75.739998</v>
+        <v>78.260002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>45244</v>
+      </c>
+      <c r="C3">
+        <v>78.4572</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D8F107-925E-47AA-862C-771F34AB8430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F288FCA7-4994-476B-8AAD-EFCE7815ED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -5698,9 +5698,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5730,7 +5730,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>1.3835537107108357E-2</v>
+        <v>1.23695977989292E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -6834,7 +6834,7 @@
         <v>4.1794862999999998</v>
       </c>
       <c r="D57">
-        <f>B57-C57</f>
+        <f t="shared" ref="D57:D63" si="31">B57-C57</f>
         <v>-3.1736299999999495E-2</v>
       </c>
       <c r="E57">
@@ -6860,7 +6860,7 @@
         <v>4.1636123999999999</v>
       </c>
       <c r="D58">
-        <f>B58-C58</f>
+        <f t="shared" si="31"/>
         <v>3.1599999999798456E-5</v>
       </c>
       <c r="E58">
@@ -6879,11 +6879,11 @@
         <v>4.1525917000000003</v>
       </c>
       <c r="D59">
-        <f>B59-C59</f>
+        <f t="shared" si="31"/>
         <v>-8.9917000000001579E-3</v>
       </c>
       <c r="E59">
-        <f t="shared" ref="E59" si="31">IF(D59&lt;0,1,0)</f>
+        <f t="shared" ref="E59" si="32">IF(D59&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6898,11 +6898,11 @@
         <v>4.1653395</v>
       </c>
       <c r="D60">
-        <f>B60-C60</f>
+        <f t="shared" si="31"/>
         <v>-1.2719500000000217E-2</v>
       </c>
       <c r="E60">
-        <f t="shared" ref="E60:E62" si="32">IF(D60&lt;0,1,0)</f>
+        <f t="shared" ref="E60:E63" si="33">IF(D60&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6917,11 +6917,11 @@
         <v>4.1250530000000003</v>
       </c>
       <c r="D61">
-        <f>B61-C61</f>
+        <f t="shared" si="31"/>
         <v>1.0152999999999857E-2</v>
       </c>
       <c r="E61">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -6936,17 +6936,36 @@
         <v>4.0906209999999996</v>
       </c>
       <c r="D62">
-        <f>B62-C62</f>
+        <f t="shared" si="31"/>
         <v>4.3079000000000534E-2</v>
       </c>
       <c r="E62">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B63">
+        <v>4.0419010000000002</v>
+      </c>
       <c r="C63">
         <v>4.1189536999999996</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="31"/>
+        <v>-7.7052699999999419E-2</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="C64">
+        <v>4.0536820000000002</v>
       </c>
     </row>
     <row r="77" spans="6:6">
@@ -8098,11 +8117,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I337"/>
+  <dimension ref="A1:I338"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B336" sqref="B336"/>
+      <selection pane="bottomLeft" activeCell="C338" sqref="C338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8132,7 +8151,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4742617663286913E-2</v>
+        <v>-1.4807883682146179E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -14450,7 +14469,7 @@
         <v>4.4520759999999999</v>
       </c>
       <c r="D331">
-        <f>B331-C331</f>
+        <f t="shared" ref="D331:D337" si="65">B331-C331</f>
         <v>-1.1760000000000659E-3</v>
       </c>
       <c r="E331">
@@ -14461,7 +14480,7 @@
         <v>4.4539</v>
       </c>
       <c r="G331">
-        <f>B331-F331</f>
+        <f t="shared" ref="G331:G337" si="66">B331-F331</f>
         <v>-3.0000000000001137E-3</v>
       </c>
     </row>
@@ -14476,7 +14495,7 @@
         <v>4.4162090000000003</v>
       </c>
       <c r="D332">
-        <f>B332-C332</f>
+        <f t="shared" si="65"/>
         <v>3.7141000000000091E-2</v>
       </c>
       <c r="E332">
@@ -14487,7 +14506,7 @@
         <v>4.4244000000000003</v>
       </c>
       <c r="G332">
-        <f>B332-F332</f>
+        <f t="shared" si="66"/>
         <v>2.8950000000000031E-2</v>
       </c>
     </row>
@@ -14502,7 +14521,7 @@
         <v>4.4925674999999998</v>
       </c>
       <c r="D333">
-        <f>B333-C333</f>
+        <f t="shared" si="65"/>
         <v>-5.5167499999999592E-2</v>
       </c>
       <c r="E333">
@@ -14513,7 +14532,7 @@
         <v>4.4690000000000003</v>
       </c>
       <c r="G333">
-        <f>B333-F333</f>
+        <f t="shared" si="66"/>
         <v>-3.1600000000000072E-2</v>
       </c>
     </row>
@@ -14528,18 +14547,18 @@
         <v>4.4154973000000002</v>
       </c>
       <c r="D334">
-        <f>B334-C334</f>
+        <f t="shared" si="65"/>
         <v>1.4142699999999842E-2</v>
       </c>
       <c r="E334">
-        <f t="shared" ref="E334:E336" si="65">IF(D334&lt;0,1,0)</f>
+        <f t="shared" ref="E334:E337" si="67">IF(D334&lt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="F334">
         <v>4.4020000000000001</v>
       </c>
       <c r="G334">
-        <f>B334-F334</f>
+        <f t="shared" si="66"/>
         <v>2.7639999999999887E-2</v>
       </c>
     </row>
@@ -14554,18 +14573,18 @@
         <v>4.4546374999999996</v>
       </c>
       <c r="D335">
-        <f>B335-C335</f>
+        <f t="shared" si="65"/>
         <v>-3.424749999999932E-2</v>
       </c>
       <c r="E335">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="F335">
         <v>4.4752999999999998</v>
       </c>
       <c r="G335">
-        <f>B335-F335</f>
+        <f t="shared" si="66"/>
         <v>-5.490999999999957E-2</v>
       </c>
     </row>
@@ -14580,24 +14599,50 @@
         <v>4.4739769999999996</v>
       </c>
       <c r="D336">
-        <f>B336-C336</f>
+        <f t="shared" si="65"/>
         <v>-4.9417000000000044E-2</v>
       </c>
       <c r="E336">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="F336">
         <v>4.4639670000000002</v>
       </c>
       <c r="G336">
-        <f>B336-F336</f>
+        <f t="shared" si="66"/>
         <v>-3.9407000000000636E-2</v>
       </c>
     </row>
-    <row r="337" spans="3:3">
+    <row r="337" spans="1:7">
+      <c r="A337" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B337">
+        <v>4.3967599999999996</v>
+      </c>
       <c r="C337">
         <v>4.4334319999999998</v>
+      </c>
+      <c r="D337">
+        <f t="shared" si="65"/>
+        <v>-3.667200000000026E-2</v>
+      </c>
+      <c r="E337">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="F337">
+        <v>4.4584000000000001</v>
+      </c>
+      <c r="G337">
+        <f t="shared" si="66"/>
+        <v>-6.1640000000000583E-2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="C338">
+        <v>4.452108</v>
       </c>
     </row>
   </sheetData>
@@ -16809,8 +16854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A25" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17142,8 +17187,8 @@
       <c r="A30" s="1">
         <v>45245</v>
       </c>
-      <c r="B30" t="s">
-        <v>56</v>
+      <c r="B30">
+        <v>4.452108</v>
       </c>
       <c r="C30">
         <v>4.4453683000000002</v>
@@ -17178,21 +17223,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -17206,7 +17251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>45243</v>
       </c>
@@ -17214,12 +17259,37 @@
         <v>78.260002</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>45244</v>
       </c>
+      <c r="B3">
+        <v>78.260002</v>
+      </c>
       <c r="C3">
         <v>78.4572</v>
+      </c>
+      <c r="D3">
+        <f>B3-C3</f>
+        <v>-0.19719800000000021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B4">
+        <v>76.660004000000001</v>
+      </c>
+      <c r="C4">
+        <v>74.513599999999997</v>
+      </c>
+      <c r="D4">
+        <f>B4-C4</f>
+        <v>2.146404000000004</v>
+      </c>
+      <c r="E4">
+        <v>80.040700000000001</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F288FCA7-4994-476B-8AAD-EFCE7815ED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6CD6F8-0976-43F6-BA47-45F6FD0DACF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>Nan</t>
+  </si>
+  <si>
+    <t>4.4474134, 4.460405 , 4.474821 , 4.481926 , 4.483149</t>
   </si>
 </sst>
 </file>
@@ -5698,9 +5701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5730,7 +5733,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>1.23695977989292E-2</v>
+        <v>1.1974540691009686E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -6834,7 +6837,7 @@
         <v>4.1794862999999998</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57:D63" si="31">B57-C57</f>
+        <f t="shared" ref="D57:D64" si="31">B57-C57</f>
         <v>-3.1736299999999495E-2</v>
       </c>
       <c r="E57">
@@ -6902,7 +6905,7 @@
         <v>-1.2719500000000217E-2</v>
       </c>
       <c r="E60">
-        <f t="shared" ref="E60:E63" si="33">IF(D60&lt;0,1,0)</f>
+        <f t="shared" ref="E60:E64" si="33">IF(D60&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6964,8 +6967,22 @@
       </c>
     </row>
     <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B64">
+        <v>4.0411630000000001</v>
+      </c>
       <c r="C64">
         <v>4.0536820000000002</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="31"/>
+        <v>-1.2519000000000169E-2</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="33"/>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="6:6">
@@ -8121,7 +8138,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C338" sqref="C338"/>
+      <selection pane="bottomLeft" activeCell="F338" sqref="F338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8151,7 +8168,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4807883682146179E-2</v>
+        <v>-1.4958922602970671E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -14641,8 +14658,22 @@
       </c>
     </row>
     <row r="338" spans="1:7">
+      <c r="A338" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B338">
+        <v>4.3864000000000001</v>
+      </c>
       <c r="C338">
         <v>4.452108</v>
+      </c>
+      <c r="D338">
+        <f t="shared" ref="D338" si="68">B338-C338</f>
+        <v>-6.5707999999999878E-2</v>
+      </c>
+      <c r="E338">
+        <f t="shared" ref="E338" si="69">IF(D338&lt;0,1,0)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -14654,11 +14685,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1ED544-943B-464D-8F71-ADEA40B3BDB3}">
-  <dimension ref="A1:Q146"/>
+  <dimension ref="A1:Q152"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G146" sqref="G146"/>
+      <selection pane="bottomLeft" activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16843,6 +16874,11 @@
         <v>53</v>
       </c>
     </row>
+    <row r="152" spans="4:7">
+      <c r="G152" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16852,10 +16888,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B33" sqref="B33:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17198,8 +17234,8 @@
       <c r="A31" s="1">
         <v>45246</v>
       </c>
-      <c r="B31" t="s">
-        <v>56</v>
+      <c r="B31">
+        <v>4.3864000000000001</v>
       </c>
       <c r="C31">
         <v>4.4587025999999996</v>
@@ -17214,6 +17250,61 @@
       </c>
       <c r="C32">
         <v>4.4589353000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>45250</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33">
+        <v>4.4474134000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>45251</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34">
+        <v>4.4604049999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35">
+        <v>4.4748210000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>45253</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36">
+        <v>4.4819259999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>45254</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37">
+        <v>4.4831490000000001</v>
       </c>
     </row>
   </sheetData>
@@ -17223,10 +17314,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17292,6 +17383,24 @@
         <v>80.040700000000001</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B5">
+        <v>72.900002000000001</v>
+      </c>
+      <c r="C5">
+        <v>72.136700000000005</v>
+      </c>
+      <c r="D5">
+        <f>B5-C5</f>
+        <v>0.76330199999999593</v>
+      </c>
+      <c r="E5">
+        <v>74.241600000000005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6CD6F8-0976-43F6-BA47-45F6FD0DACF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E390A588-F0CF-40B4-8A45-97D3C3C1C2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -5703,7 +5703,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>1.1974540691009686E-2</v>
+        <v>1.1813397867712669E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -6837,7 +6837,7 @@
         <v>4.1794862999999998</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57:D64" si="31">B57-C57</f>
+        <f t="shared" ref="D57:D65" si="31">B57-C57</f>
         <v>-3.1736299999999495E-2</v>
       </c>
       <c r="E57">
@@ -6905,7 +6905,7 @@
         <v>-1.2719500000000217E-2</v>
       </c>
       <c r="E60">
-        <f t="shared" ref="E60:E64" si="33">IF(D60&lt;0,1,0)</f>
+        <f t="shared" ref="E60:E65" si="33">IF(D60&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6985,7 +6985,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="6:6">
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>45247</v>
+      </c>
+      <c r="B65">
+        <v>4.0270520000000003</v>
+      </c>
+      <c r="C65">
+        <v>4.0253905999999997</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="31"/>
+        <v>1.6614000000005902E-3</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="F77" s="8"/>
     </row>
   </sheetData>
@@ -8134,11 +8153,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I338"/>
+  <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F338" sqref="F338"/>
+      <selection pane="bottomLeft" activeCell="A339" sqref="A339:B339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8168,7 +8187,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4958922602970671E-2</v>
+        <v>-1.4988626973967798E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -14668,11 +14687,30 @@
         <v>4.452108</v>
       </c>
       <c r="D338">
-        <f t="shared" ref="D338" si="68">B338-C338</f>
+        <f t="shared" ref="D338:D339" si="68">B338-C338</f>
         <v>-6.5707999999999878E-2</v>
       </c>
       <c r="E338">
-        <f t="shared" ref="E338" si="69">IF(D338&lt;0,1,0)</f>
+        <f t="shared" ref="E338:E339" si="69">IF(D338&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" s="1">
+        <v>45247</v>
+      </c>
+      <c r="B339">
+        <v>4.3706399999999999</v>
+      </c>
+      <c r="C339">
+        <v>4.3956390000000001</v>
+      </c>
+      <c r="D339">
+        <f t="shared" si="68"/>
+        <v>-2.4999000000000215E-2</v>
+      </c>
+      <c r="E339">
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
     </row>
@@ -16890,8 +16928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17245,8 +17283,8 @@
       <c r="A32" s="1">
         <v>45247</v>
       </c>
-      <c r="B32" t="s">
-        <v>56</v>
+      <c r="B32">
+        <v>4.3706399999999999</v>
       </c>
       <c r="C32">
         <v>4.4589353000000003</v>
@@ -17314,10 +17352,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17401,6 +17439,11 @@
         <v>74.241600000000005</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="C6">
+        <v>63.4467</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E390A588-F0CF-40B4-8A45-97D3C3C1C2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7033EA73-BAE9-42B8-9A18-5B2AB002DBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -5701,9 +5701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>1.1813397867712669E-2</v>
+        <v>1.1768760977440174E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -6837,7 +6837,7 @@
         <v>4.1794862999999998</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57:D65" si="31">B57-C57</f>
+        <f t="shared" ref="D57:D66" si="31">B57-C57</f>
         <v>-3.1736299999999495E-2</v>
       </c>
       <c r="E57">
@@ -6905,7 +6905,7 @@
         <v>-1.2719500000000217E-2</v>
       </c>
       <c r="E60">
-        <f t="shared" ref="E60:E65" si="33">IF(D60&lt;0,1,0)</f>
+        <f t="shared" ref="E60:E66" si="33">IF(D60&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7002,6 +7002,30 @@
       <c r="E65">
         <f t="shared" si="33"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>45250</v>
+      </c>
+      <c r="B66">
+        <v>4.0177690000000004</v>
+      </c>
+      <c r="C66">
+        <v>4.0088569999999999</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="31"/>
+        <v>8.9120000000004751E-3</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="C67">
+        <v>4.0179970000000003</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8153,11 +8177,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I339"/>
+  <dimension ref="A1:I341"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A339" sqref="A339:B339"/>
+      <selection pane="bottomLeft" activeCell="C341" sqref="C341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8187,7 +8211,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4988626973967798E-2</v>
+        <v>-1.5040086776404471E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -14712,6 +14736,30 @@
       <c r="E339">
         <f t="shared" si="69"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="1">
+        <v>45250</v>
+      </c>
+      <c r="B340">
+        <v>4.3820399999999999</v>
+      </c>
+      <c r="C340">
+        <v>4.4144734999999997</v>
+      </c>
+      <c r="D340">
+        <f t="shared" ref="D340" si="70">B340-C340</f>
+        <v>-3.2433499999999782E-2</v>
+      </c>
+      <c r="E340">
+        <f t="shared" ref="E340" si="71">IF(D340&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="C341">
+        <v>4.380541</v>
       </c>
     </row>
   </sheetData>
@@ -16928,8 +16976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A25" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17294,8 +17342,8 @@
       <c r="A33" s="1">
         <v>45250</v>
       </c>
-      <c r="B33" t="s">
-        <v>56</v>
+      <c r="B33">
+        <v>4.3820399999999999</v>
       </c>
       <c r="C33">
         <v>4.4474134000000003</v>
@@ -17352,10 +17400,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17440,8 +17488,33 @@
       </c>
     </row>
     <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>45247</v>
+      </c>
+      <c r="B6">
+        <v>75.889999000000003</v>
+      </c>
       <c r="C6">
         <v>63.4467</v>
+      </c>
+      <c r="D6">
+        <f>B6-C6</f>
+        <v>12.443299000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>45250</v>
+      </c>
+      <c r="B7">
+        <v>77.5</v>
+      </c>
+      <c r="C7">
+        <v>63.396900000000002</v>
+      </c>
+      <c r="D7">
+        <f>B7-C7</f>
+        <v>14.103099999999998</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7033EA73-BAE9-42B8-9A18-5B2AB002DBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46A4527-DCCF-48E4-BFE6-AEC3DC0046C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -5703,7 +5703,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>1.1768760977440174E-2</v>
+        <v>1.0846552477781986E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -6837,7 +6837,7 @@
         <v>4.1794862999999998</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57:D66" si="31">B57-C57</f>
+        <f t="shared" ref="D57:D67" si="31">B57-C57</f>
         <v>-3.1736299999999495E-2</v>
       </c>
       <c r="E57">
@@ -6905,7 +6905,7 @@
         <v>-1.2719500000000217E-2</v>
       </c>
       <c r="E60">
-        <f t="shared" ref="E60:E66" si="33">IF(D60&lt;0,1,0)</f>
+        <f t="shared" ref="E60:E67" si="33">IF(D60&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7024,8 +7024,27 @@
       </c>
     </row>
     <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>45251</v>
+      </c>
+      <c r="B67">
+        <v>3.9689000000000001</v>
+      </c>
       <c r="C67">
         <v>4.0179970000000003</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="31"/>
+        <v>-4.9097000000000168E-2</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="C68">
+        <v>4.0342444999999998</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8177,11 +8196,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I341"/>
+  <dimension ref="A1:I342"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C341" sqref="C341"/>
+      <selection pane="bottomLeft" activeCell="C343" sqref="C343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8211,7 +8230,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5040086776404471E-2</v>
+        <v>-1.5103030638826811E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -14749,17 +14768,36 @@
         <v>4.4144734999999997</v>
       </c>
       <c r="D340">
-        <f t="shared" ref="D340" si="70">B340-C340</f>
+        <f t="shared" ref="D340:D341" si="70">B340-C340</f>
         <v>-3.2433499999999782E-2</v>
       </c>
       <c r="E340">
-        <f t="shared" ref="E340" si="71">IF(D340&lt;0,1,0)</f>
+        <f t="shared" ref="E340:E341" si="71">IF(D340&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:7">
+      <c r="A341" s="1">
+        <v>45251</v>
+      </c>
+      <c r="B341">
+        <v>4.3441000000000001</v>
+      </c>
       <c r="C341">
         <v>4.380541</v>
+      </c>
+      <c r="D341">
+        <f t="shared" si="70"/>
+        <v>-3.6440999999999946E-2</v>
+      </c>
+      <c r="E341">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="C342">
+        <v>4.3509526000000003</v>
       </c>
     </row>
   </sheetData>
@@ -16977,7 +17015,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:B33"/>
+      <selection activeCell="A34" sqref="A34:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17353,8 +17391,8 @@
       <c r="A34" s="1">
         <v>45251</v>
       </c>
-      <c r="B34" t="s">
-        <v>56</v>
+      <c r="B34">
+        <v>4.3441000000000001</v>
       </c>
       <c r="C34">
         <v>4.4604049999999997</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46A4527-DCCF-48E4-BFE6-AEC3DC0046C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D937DB4-11C0-4BF7-8A58-23861CB950FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -5703,7 +5703,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>1.0846552477781986E-2</v>
+        <v>1.0229611396024052E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -6837,7 +6837,7 @@
         <v>4.1794862999999998</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57:D67" si="31">B57-C57</f>
+        <f t="shared" ref="D57:D68" si="31">B57-C57</f>
         <v>-3.1736299999999495E-2</v>
       </c>
       <c r="E57">
@@ -6905,7 +6905,7 @@
         <v>-1.2719500000000217E-2</v>
       </c>
       <c r="E60">
-        <f t="shared" ref="E60:E67" si="33">IF(D60&lt;0,1,0)</f>
+        <f t="shared" ref="E60:E68" si="33">IF(D60&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7043,8 +7043,27 @@
       </c>
     </row>
     <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B68">
+        <v>4.0037560000000001</v>
+      </c>
       <c r="C68">
         <v>4.0342444999999998</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="31"/>
+        <v>-3.0488499999999696E-2</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="C69">
+        <v>3.9910321</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8196,11 +8215,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I342"/>
+  <dimension ref="A1:I343"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C343" sqref="C343"/>
+      <selection pane="bottomLeft" activeCell="C344" sqref="C344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8230,7 +8249,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5103030638826811E-2</v>
+        <v>-1.5000243452202687E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -14768,11 +14787,11 @@
         <v>4.4144734999999997</v>
       </c>
       <c r="D340">
-        <f t="shared" ref="D340:D341" si="70">B340-C340</f>
+        <f t="shared" ref="D340:D342" si="70">B340-C340</f>
         <v>-3.2433499999999782E-2</v>
       </c>
       <c r="E340">
-        <f t="shared" ref="E340:E341" si="71">IF(D340&lt;0,1,0)</f>
+        <f t="shared" ref="E340:E342" si="71">IF(D340&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -14796,8 +14815,27 @@
       </c>
     </row>
     <row r="342" spans="1:7">
+      <c r="A342" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B342">
+        <v>4.3708999999999998</v>
+      </c>
       <c r="C342">
         <v>4.3509526000000003</v>
+      </c>
+      <c r="D342">
+        <f t="shared" si="70"/>
+        <v>1.9947399999999504E-2</v>
+      </c>
+      <c r="E342">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="C343">
+        <v>4.3573136000000003</v>
       </c>
     </row>
   </sheetData>
@@ -17015,7 +17053,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:B34"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17402,8 +17440,8 @@
       <c r="A35" s="1">
         <v>45252</v>
       </c>
-      <c r="B35" t="s">
-        <v>56</v>
+      <c r="B35">
+        <v>4.3708999999999998</v>
       </c>
       <c r="C35">
         <v>4.4748210000000004</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D937DB4-11C0-4BF7-8A58-23861CB950FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FA257C-17DF-4BAA-ADC5-6748C86A5831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>4.4474134, 4.460405 , 4.474821 , 4.481926 , 4.483149</t>
+  </si>
+  <si>
+    <t>4.425458 , 4.4274306, 4.4089894, 4.3910556, 4.3848934</t>
   </si>
 </sst>
 </file>
@@ -5703,7 +5706,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5733,7 +5736,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>1.0229611396024052E-2</v>
+        <v>1.0331203875494284E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7062,8 +7065,27 @@
       </c>
     </row>
     <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>45253</v>
+      </c>
+      <c r="B69">
+        <v>4.0081699999999998</v>
+      </c>
       <c r="C69">
         <v>3.9910321</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ref="D69" si="34">B69-C69</f>
+        <v>1.7137899999999817E-2</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ref="E69" si="35">IF(D69&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="C70">
+        <v>4.0195780000000001</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8215,11 +8237,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I343"/>
+  <dimension ref="A1:I344"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C344" sqref="C344"/>
+      <selection pane="bottomLeft" activeCell="C345" sqref="C345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8249,7 +8271,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5000243452202687E-2</v>
+        <v>-1.4943264962576365E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -14834,8 +14856,27 @@
       </c>
     </row>
     <row r="343" spans="1:7">
+      <c r="A343" s="1">
+        <v>45253</v>
+      </c>
+      <c r="B343">
+        <v>4.3617999999999997</v>
+      </c>
       <c r="C343">
         <v>4.3573136000000003</v>
+      </c>
+      <c r="D343">
+        <f t="shared" ref="D343" si="72">B343-C343</f>
+        <v>4.4863999999993354E-3</v>
+      </c>
+      <c r="E343">
+        <f t="shared" ref="E343" si="73">IF(D343&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="C344">
+        <v>4.3668965999999996</v>
       </c>
     </row>
   </sheetData>
@@ -14847,11 +14888,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1ED544-943B-464D-8F71-ADEA40B3BDB3}">
-  <dimension ref="A1:Q152"/>
+  <dimension ref="A1:Q158"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G152" sqref="G152"/>
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17041,6 +17082,11 @@
         <v>57</v>
       </c>
     </row>
+    <row r="158" spans="4:7">
+      <c r="G158" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17050,10 +17096,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A28" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17451,8 +17497,8 @@
       <c r="A36" s="1">
         <v>45253</v>
       </c>
-      <c r="B36" t="s">
-        <v>56</v>
+      <c r="B36">
+        <v>4.3617999999999997</v>
       </c>
       <c r="C36">
         <v>4.4819259999999996</v>
@@ -17467,6 +17513,61 @@
       </c>
       <c r="C37">
         <v>4.4831490000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38">
+        <v>4.4254579999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39">
+        <v>4.4274306000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40">
+        <v>4.4089894000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41">
+        <v>4.3910555999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42">
+        <v>4.3848934000000002</v>
       </c>
     </row>
   </sheetData>
@@ -17476,10 +17577,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17593,6 +17694,11 @@
         <v>14.103099999999998</v>
       </c>
     </row>
+    <row r="8" spans="1:5">
+      <c r="B8">
+        <v>77.099997999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FA257C-17DF-4BAA-ADC5-6748C86A5831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC32D3D7-2A41-43C4-808A-9C377C077AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5704,9 +5704,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>1.0331203875494284E-2</v>
+        <v>9.9325197613566799E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7075,17 +7075,36 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D70" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E70" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>45254</v>
+      </c>
+      <c r="B70">
+        <v>4.0023999999999997</v>
+      </c>
       <c r="C70">
         <v>4.0195780000000001</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="34"/>
+        <v>-1.717800000000036E-2</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="C71">
+        <v>4.0003824000000003</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8237,11 +8256,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I344"/>
+  <dimension ref="A1:I345"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C345" sqref="C345"/>
+      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A344" sqref="A344:B344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8271,7 +8290,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4943264962576365E-2</v>
+        <v>-1.49104758518983E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -14875,8 +14894,27 @@
       </c>
     </row>
     <row r="344" spans="1:7">
+      <c r="A344" s="1">
+        <v>45254</v>
+      </c>
+      <c r="B344">
+        <v>4.3632</v>
+      </c>
       <c r="C344">
         <v>4.3668965999999996</v>
+      </c>
+      <c r="D344">
+        <f t="shared" ref="D344" si="74">B344-C344</f>
+        <v>-3.6965999999996058E-3</v>
+      </c>
+      <c r="E344">
+        <f t="shared" ref="E344" si="75">IF(D344&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="C345">
+        <v>4.3540289999999997</v>
       </c>
     </row>
   </sheetData>
@@ -17098,8 +17136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17508,8 +17546,8 @@
       <c r="A37" s="1">
         <v>45254</v>
       </c>
-      <c r="B37" t="s">
-        <v>56</v>
+      <c r="B37">
+        <v>4.3632</v>
       </c>
       <c r="C37">
         <v>4.4831490000000001</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC32D3D7-2A41-43C4-808A-9C377C077AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79599B2B-2CCF-41F6-9296-5781F088C765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5704,9 +5704,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>9.9325197613566799E-3</v>
+        <v>9.5437351933372917E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7075,11 +7075,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D70" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D71" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E70" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E71" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7103,8 +7103,27 @@
       </c>
     </row>
     <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B71">
+        <v>3.9830999999999999</v>
+      </c>
       <c r="C71">
         <v>4.0003824000000003</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="34"/>
+        <v>-1.7282400000000475E-2</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="C72">
+        <v>3.9747914999999998</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8256,11 +8275,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I345"/>
+  <dimension ref="A1:I346"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A344" sqref="A344:B344"/>
+      <selection pane="bottomLeft" activeCell="C347" sqref="C347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8290,7 +8309,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.49104758518983E-2</v>
+        <v>-1.4847826212793944E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -14904,17 +14923,36 @@
         <v>4.3668965999999996</v>
       </c>
       <c r="D344">
-        <f t="shared" ref="D344" si="74">B344-C344</f>
+        <f t="shared" ref="D344:D345" si="74">B344-C344</f>
         <v>-3.6965999999996058E-3</v>
       </c>
       <c r="E344">
-        <f t="shared" ref="E344" si="75">IF(D344&lt;0,1,0)</f>
+        <f t="shared" ref="E344:E345" si="75">IF(D344&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:7">
+      <c r="A345" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B345">
+        <v>4.3606699999999998</v>
+      </c>
       <c r="C345">
         <v>4.3540289999999997</v>
+      </c>
+      <c r="D345">
+        <f t="shared" si="74"/>
+        <v>6.641000000000119E-3</v>
+      </c>
+      <c r="E345">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="C346">
+        <v>4.3919430000000004</v>
       </c>
     </row>
   </sheetData>
@@ -17136,7 +17174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="A37" sqref="A37:B37"/>
     </sheetView>
   </sheetViews>
@@ -17615,10 +17653,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17737,6 +17775,11 @@
         <v>77.099997999999999</v>
       </c>
     </row>
+    <row r="10" spans="1:5">
+      <c r="E10">
+        <v>67.581500000000005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79599B2B-2CCF-41F6-9296-5781F088C765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0846104D-29A8-46FF-9756-B5E2D96D3401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5706,7 +5706,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>9.5437351933372917E-3</v>
+        <v>9.2596192046987425E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7075,11 +7075,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D71" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D72" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E71" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E72" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7122,8 +7122,27 @@
       </c>
     </row>
     <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B72">
+        <v>3.9641630000000001</v>
+      </c>
       <c r="C72">
         <v>3.9747914999999998</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="34"/>
+        <v>-1.0628499999999708E-2</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="C73">
+        <v>3.9811260000000002</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8275,11 +8294,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I346"/>
+  <dimension ref="A1:I347"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C347" sqref="C347"/>
+      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C348" sqref="C348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8309,7 +8328,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4847826212793944E-2</v>
+        <v>-1.4943957151307584E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -14951,8 +14970,27 @@
       </c>
     </row>
     <row r="346" spans="1:7">
+      <c r="A346" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B346">
+        <v>4.3439300000000003</v>
+      </c>
       <c r="C346">
         <v>4.3919430000000004</v>
+      </c>
+      <c r="D346">
+        <f t="shared" ref="D346" si="76">B346-C346</f>
+        <v>-4.8013000000000083E-2</v>
+      </c>
+      <c r="E346">
+        <f t="shared" ref="E346" si="77">IF(D346&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="C347">
+        <v>4.3720565000000002</v>
       </c>
     </row>
   </sheetData>
@@ -17175,7 +17213,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:B37"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17595,8 +17633,8 @@
       <c r="A38" s="1">
         <v>45257</v>
       </c>
-      <c r="B38" t="s">
-        <v>56</v>
+      <c r="B38">
+        <v>4.3606699999999998</v>
       </c>
       <c r="C38">
         <v>4.4254579999999999</v>
@@ -17606,8 +17644,8 @@
       <c r="A39" s="1">
         <v>45258</v>
       </c>
-      <c r="B39" t="s">
-        <v>56</v>
+      <c r="B39">
+        <v>4.3439300000000003</v>
       </c>
       <c r="C39">
         <v>4.4274306000000001</v>
@@ -17653,10 +17691,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17680,104 +17718,32 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="E1">
+        <f>AVERAGE(D2:D301)</f>
+        <v>-9.4896000000005643E-2</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>45243</v>
+        <v>45257</v>
       </c>
       <c r="B2">
-        <v>78.260002</v>
+        <v>74.860000999999997</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>45244</v>
+        <v>45258</v>
       </c>
       <c r="B3">
-        <v>78.260002</v>
+        <v>76.410004000000001</v>
       </c>
       <c r="C3">
-        <v>78.4572</v>
+        <v>76.504900000000006</v>
       </c>
       <c r="D3">
         <f>B3-C3</f>
-        <v>-0.19719800000000021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>45245</v>
-      </c>
-      <c r="B4">
-        <v>76.660004000000001</v>
-      </c>
-      <c r="C4">
-        <v>74.513599999999997</v>
-      </c>
-      <c r="D4">
-        <f>B4-C4</f>
-        <v>2.146404000000004</v>
-      </c>
-      <c r="E4">
-        <v>80.040700000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>45246</v>
-      </c>
-      <c r="B5">
-        <v>72.900002000000001</v>
-      </c>
-      <c r="C5">
-        <v>72.136700000000005</v>
-      </c>
-      <c r="D5">
-        <f>B5-C5</f>
-        <v>0.76330199999999593</v>
-      </c>
-      <c r="E5">
-        <v>74.241600000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>45247</v>
-      </c>
-      <c r="B6">
-        <v>75.889999000000003</v>
-      </c>
-      <c r="C6">
-        <v>63.4467</v>
-      </c>
-      <c r="D6">
-        <f>B6-C6</f>
-        <v>12.443299000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>45250</v>
-      </c>
-      <c r="B7">
-        <v>77.5</v>
-      </c>
-      <c r="C7">
-        <v>63.396900000000002</v>
-      </c>
-      <c r="D7">
-        <f>B7-C7</f>
-        <v>14.103099999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8">
-        <v>77.099997999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="E10">
-        <v>67.581500000000005</v>
+        <v>-9.4896000000005643E-2</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0846104D-29A8-46FF-9756-B5E2D96D3401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73DD642-0D3D-46A0-9BFE-E87532775EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5706,7 +5706,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>9.2596192046987425E-3</v>
+        <v>8.3346800490779228E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -6988,7 +6988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>45247</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>45250</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>45251</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>45252</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>45253</v>
       </c>
@@ -7075,15 +7075,15 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D72" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D73" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E72" si="35">IF(D69&lt;0,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <f t="shared" ref="E69:E73" si="35">IF(D69&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>45254</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>45257</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>45258</v>
       </c>
@@ -7140,12 +7140,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B73">
+        <v>3.9237899999999999</v>
+      </c>
       <c r="C73">
         <v>3.9811260000000002</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="D73">
+        <f t="shared" si="34"/>
+        <v>-5.7336000000000276E-2</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>3.8898000000000001</v>
+      </c>
+      <c r="G73">
+        <f>B73-F73</f>
+        <v>3.3989999999999743E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="C74">
+        <v>3.8980269999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="F77" s="8"/>
     </row>
   </sheetData>
@@ -8294,11 +8320,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I347"/>
+  <dimension ref="A1:I348"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C348" sqref="C348"/>
+      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C349" sqref="C349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8328,7 +8354,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4943957151307584E-2</v>
+        <v>-1.5058039645089933E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -14980,17 +15006,43 @@
         <v>4.3919430000000004</v>
       </c>
       <c r="D346">
-        <f t="shared" ref="D346" si="76">B346-C346</f>
+        <f t="shared" ref="D346:D347" si="76">B346-C346</f>
         <v>-4.8013000000000083E-2</v>
       </c>
       <c r="E346">
-        <f t="shared" ref="E346" si="77">IF(D346&lt;0,1,0)</f>
+        <f t="shared" ref="E346:E347" si="77">IF(D346&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:7">
+      <c r="A347" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B347">
+        <v>4.3176399999999999</v>
+      </c>
       <c r="C347">
         <v>4.3720565000000002</v>
+      </c>
+      <c r="D347">
+        <f t="shared" si="76"/>
+        <v>-5.4416500000000312E-2</v>
+      </c>
+      <c r="E347">
+        <f t="shared" si="77"/>
+        <v>1</v>
+      </c>
+      <c r="F347">
+        <v>4.3661000000000003</v>
+      </c>
+      <c r="G347">
+        <f t="shared" ref="G347" si="78">B347-F347</f>
+        <v>-4.8460000000000392E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="C348">
+        <v>4.3294186999999997</v>
       </c>
     </row>
   </sheetData>
@@ -17212,8 +17264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A34" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17655,8 +17707,8 @@
       <c r="A40" s="1">
         <v>45259</v>
       </c>
-      <c r="B40" t="s">
-        <v>56</v>
+      <c r="B40">
+        <v>4.3176399999999999</v>
       </c>
       <c r="C40">
         <v>4.4089894000000003</v>
@@ -17691,10 +17743,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17720,7 +17772,7 @@
       </c>
       <c r="E1">
         <f>AVERAGE(D2:D301)</f>
-        <v>-9.4896000000005643E-2</v>
+        <v>1.5941524999999928</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -17744,6 +17796,21 @@
       <c r="D3">
         <f>B3-C3</f>
         <v>-9.4896000000005643E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B4">
+        <v>77.860000999999997</v>
+      </c>
+      <c r="C4">
+        <v>74.576800000000006</v>
+      </c>
+      <c r="D4">
+        <f>B4-C4</f>
+        <v>3.2832009999999912</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73DD642-0D3D-46A0-9BFE-E87532775EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BA4A82-9D01-472F-A067-101193E4DC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="DX_EUR" sheetId="5" r:id="rId4"/>
     <sheet name="D5_EUR" sheetId="9" r:id="rId5"/>
     <sheet name="D1_OIL" sheetId="8" r:id="rId6"/>
+    <sheet name="Normalization_example" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5704,9 +5705,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>8.3346800490779228E-3</v>
+        <v>8.9763008703234292E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7075,11 +7076,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D73" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D74" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E73" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E74" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7167,8 +7168,34 @@
       </c>
     </row>
     <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B74">
+        <v>3.9531999999999998</v>
+      </c>
       <c r="C74">
         <v>3.8980269999999999</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="34"/>
+        <v>5.5172999999999917E-2</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>3.8652000000000002</v>
+      </c>
+      <c r="G74">
+        <f>B74-F74</f>
+        <v>8.7999999999999634E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="C75">
+        <v>3.9550898000000001</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -8320,11 +8347,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I348"/>
+  <dimension ref="A1:I349"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C349" sqref="C349"/>
+      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A348" sqref="A348:B348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8354,7 +8381,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5058039645089933E-2</v>
+        <v>-1.498755163458535E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15006,11 +15033,11 @@
         <v>4.3919430000000004</v>
       </c>
       <c r="D346">
-        <f t="shared" ref="D346:D347" si="76">B346-C346</f>
+        <f t="shared" ref="D346:D348" si="76">B346-C346</f>
         <v>-4.8013000000000083E-2</v>
       </c>
       <c r="E346">
-        <f t="shared" ref="E346:E347" si="77">IF(D346&lt;0,1,0)</f>
+        <f t="shared" ref="E346:E348" si="77">IF(D346&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -15036,13 +15063,39 @@
         <v>4.3661000000000003</v>
       </c>
       <c r="G347">
-        <f t="shared" ref="G347" si="78">B347-F347</f>
+        <f t="shared" ref="G347:G348" si="78">B347-F347</f>
         <v>-4.8460000000000392E-2</v>
       </c>
     </row>
     <row r="348" spans="1:7">
+      <c r="A348" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B348">
+        <v>4.3388200000000001</v>
+      </c>
       <c r="C348">
         <v>4.3294186999999997</v>
+      </c>
+      <c r="D348">
+        <f t="shared" si="76"/>
+        <v>9.4013000000003899E-3</v>
+      </c>
+      <c r="E348">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="F348">
+        <v>4.3742999999999999</v>
+      </c>
+      <c r="G348">
+        <f t="shared" si="78"/>
+        <v>-3.5479999999999734E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="C349">
+        <v>4.3836789999999999</v>
       </c>
     </row>
   </sheetData>
@@ -17264,8 +17317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A31" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17718,8 +17771,8 @@
       <c r="A41" s="1">
         <v>45260</v>
       </c>
-      <c r="B41" t="s">
-        <v>56</v>
+      <c r="B41">
+        <v>4.3388200000000001</v>
       </c>
       <c r="C41">
         <v>4.3910555999999996</v>
@@ -17743,10 +17796,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17772,7 +17825,7 @@
       </c>
       <c r="E1">
         <f>AVERAGE(D2:D301)</f>
-        <v>1.5941524999999928</v>
+        <v>1.8738013333333281</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -17813,7 +17866,1167 @@
         <v>3.2832009999999912</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B5">
+        <v>75.959998999999996</v>
+      </c>
+      <c r="C5">
+        <v>73.526899999999998</v>
+      </c>
+      <c r="D5">
+        <f>B5-C5</f>
+        <v>2.4330989999999986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="C6">
+        <v>75.0822</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2735D1A-F4DE-4DDC-A04F-6C2EC4F5E003}">
+  <dimension ref="A1:E74"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <f>MIN(C2:C74)</f>
+        <v>3.8980269999999999</v>
+      </c>
+      <c r="E1">
+        <f>MAX(C2:C74)</f>
+        <v>4.3988779999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>45160</v>
+      </c>
+      <c r="B2">
+        <v>4.10379</v>
+      </c>
+      <c r="C2">
+        <v>4.2317090000000004</v>
+      </c>
+      <c r="D2">
+        <f>(C2-$D$1)/($E$1-$D$1)</f>
+        <v>0.66623007640995136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>45161</v>
+      </c>
+      <c r="B3">
+        <v>4.1436010000000003</v>
+      </c>
+      <c r="C3">
+        <v>4.1542295999999999</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">(C3-$D$1)/($E$1-$D$1)</f>
+        <v>0.51153456816498311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.2" customHeight="1">
+      <c r="A4" s="1">
+        <v>45162</v>
+      </c>
+      <c r="B4">
+        <v>4.1349299999999998</v>
+      </c>
+      <c r="C4">
+        <v>4.1437840000000001</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.4906788645724981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>45163</v>
+      </c>
+      <c r="B5">
+        <v>4.1421960000000002</v>
+      </c>
+      <c r="C5">
+        <v>4.1436653000000003</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.49044186794076572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>45166</v>
+      </c>
+      <c r="B6">
+        <v>4.1401919999999999</v>
+      </c>
+      <c r="C6">
+        <v>4.121092</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.44537197689532437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>45167</v>
+      </c>
+      <c r="B7">
+        <v>4.1424269999999996</v>
+      </c>
+      <c r="C7">
+        <v>4.1126230000000001</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.42846275638862708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>45168</v>
+      </c>
+      <c r="B8">
+        <v>4.0843290000000003</v>
+      </c>
+      <c r="C8">
+        <v>4.1820940000000002</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.56716867890849842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B9">
+        <v>4.1210769999999997</v>
+      </c>
+      <c r="C9">
+        <v>4.1488959999999997</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.50088549289109896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B10">
+        <v>4.1228449999999999</v>
+      </c>
+      <c r="C10">
+        <v>4.1547616124999998</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.51259678527146768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>45173</v>
+      </c>
+      <c r="B11">
+        <v>4.1261541111111102</v>
+      </c>
+      <c r="C11">
+        <v>4.1055435999999998</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.41432801372064737</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>45174</v>
+      </c>
+      <c r="B12">
+        <v>4.142512</v>
+      </c>
+      <c r="C12">
+        <f>AVERAGE(C6:C11)</f>
+        <v>4.1375017020833331</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.47813561734594368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B13">
+        <v>4.1849769999999999</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE(C7:C12)</f>
+        <v>4.1402366524305556</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.48359622408771419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B14">
+        <v>4.258</v>
+      </c>
+      <c r="C14">
+        <v>4.1649555999999999</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.53295011889763622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>45177</v>
+      </c>
+      <c r="B15">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:C16" si="1">AVERAGE(C9:C14)</f>
+        <v>4.1419825278356486</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.48708204203575256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>45180</v>
+      </c>
+      <c r="B16">
+        <v>4.3203959999999997</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>4.1408302824749228</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.48478146689319362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>45181</v>
+      </c>
+      <c r="B17">
+        <v>4.3051000000000004</v>
+      </c>
+      <c r="C17">
+        <v>4.2877292999999996</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.77808030731694611</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>45182</v>
+      </c>
+      <c r="B18">
+        <v>4.3163099999999996</v>
+      </c>
+      <c r="C18">
+        <v>4.3197412000000002</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.84199532395862309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>45183</v>
+      </c>
+      <c r="B19">
+        <v>4.3254000000000001</v>
+      </c>
+      <c r="C19">
+        <v>4.2998969999999996</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.80237435884125174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>45184</v>
+      </c>
+      <c r="B20">
+        <v>4.3063000000000002</v>
+      </c>
+      <c r="C20">
+        <v>4.3568683000000004</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.91612335804460909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>45187</v>
+      </c>
+      <c r="B21">
+        <v>4.3575600000000003</v>
+      </c>
+      <c r="C21">
+        <v>4.2635984000000002</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.72990050933311579</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>45188</v>
+      </c>
+      <c r="B22">
+        <v>4.3500300000000003</v>
+      </c>
+      <c r="C22">
+        <v>4.363626</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.9296157939187506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>45189</v>
+      </c>
+      <c r="B23">
+        <v>4.3390500000000003</v>
+      </c>
+      <c r="C23">
+        <v>4.3153176000000002</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.83316315630796456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>45190</v>
+      </c>
+      <c r="B24">
+        <v>4.3273000000000001</v>
+      </c>
+      <c r="C24">
+        <v>4.3401493999999996</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.88274237248203513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>45191</v>
+      </c>
+      <c r="B25">
+        <v>4.3280399999999997</v>
+      </c>
+      <c r="C25">
+        <v>4.3988779999999998</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>45194</v>
+      </c>
+      <c r="B26">
+        <v>4.322838</v>
+      </c>
+      <c r="C26">
+        <v>4.2926846000000003</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.78797406813603332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>45195</v>
+      </c>
+      <c r="B27">
+        <v>4.3494710000000003</v>
+      </c>
+      <c r="C27">
+        <v>4.2851376999999999</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.77290591413414389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>45196</v>
+      </c>
+      <c r="B28">
+        <v>4.3588339999999999</v>
+      </c>
+      <c r="C28">
+        <f>AVERAGE(C21:C27)</f>
+        <v>4.3227702428571426</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.84804311633029139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>45197</v>
+      </c>
+      <c r="B29">
+        <v>4.4062250000000001</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:C33" si="2">AVERAGE(C22:C28)</f>
+        <v>4.3312233632653063</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.86492063161560317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>45198</v>
+      </c>
+      <c r="B30">
+        <v>4.3906270000000003</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>4.3265944151603497</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0.85567846557229565</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>45201</v>
+      </c>
+      <c r="B31">
+        <v>4.3703000000000003</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>4.328205388754685</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.85889493832434216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>45202</v>
+      </c>
+      <c r="B32">
+        <v>4.4048800000000004</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>4.3264991014339262</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.85548816201610134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>45203</v>
+      </c>
+      <c r="B33">
+        <v>4.4206390000000004</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>4.3161592587816306</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0.83484361373268856</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>45204</v>
+      </c>
+      <c r="B34">
+        <v>4.3823999999999996</v>
+      </c>
+      <c r="C34">
+        <v>4.3566294000000001</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0.91564636987846737</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>45205</v>
+      </c>
+      <c r="B35">
+        <v>4.3627960000000003</v>
+      </c>
+      <c r="C35">
+        <v>4.3857683999999999</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0.97382534925556719</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>45208</v>
+      </c>
+      <c r="B36">
+        <v>4.3303849999999997</v>
+      </c>
+      <c r="C36">
+        <v>4.3485250000000004</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0.89946511038213073</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>45209</v>
+      </c>
+      <c r="B37">
+        <v>4.3096439999999996</v>
+      </c>
+      <c r="C37">
+        <v>4.3056200000000002</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0.81380091084973449</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>45210</v>
+      </c>
+      <c r="B38">
+        <v>4.2773700000000003</v>
+      </c>
+      <c r="C38">
+        <v>4.2566657000000001</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0.71605866814681463</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>45211</v>
+      </c>
+      <c r="B39">
+        <v>4.259582</v>
+      </c>
+      <c r="C39">
+        <v>4.2690143999999997</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0.74071410459398068</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>45212</v>
+      </c>
+      <c r="B40">
+        <v>4.3075679999999998</v>
+      </c>
+      <c r="C40">
+        <v>4.2282500000000001</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0.65932383083991086</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>45215</v>
+      </c>
+      <c r="B41">
+        <v>4.2351289999999997</v>
+      </c>
+      <c r="C41">
+        <v>4.2936624999999999</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0.78992654502037551</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>45216</v>
+      </c>
+      <c r="B42">
+        <v>4.2157499999999999</v>
+      </c>
+      <c r="C42">
+        <v>4.1916785000000001</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0.58630510870498453</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>45217</v>
+      </c>
+      <c r="B43">
+        <v>4.1773470000000001</v>
+      </c>
+      <c r="C43">
+        <v>4.2237400000000003</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0.65031915679513552</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>45218</v>
+      </c>
+      <c r="B44">
+        <v>4.2219189999999998</v>
+      </c>
+      <c r="C44">
+        <v>4.2315449999999997</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0.66590263371741254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>45219</v>
+      </c>
+      <c r="B45">
+        <v>4.2020999999999997</v>
+      </c>
+      <c r="C45">
+        <v>4.2219996000000002</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0.64684427105067244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>45222</v>
+      </c>
+      <c r="B46">
+        <v>4.2072890000000003</v>
+      </c>
+      <c r="C46">
+        <v>4.1950617000000001</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0.59306001185981505</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45223</v>
+      </c>
+      <c r="B47">
+        <v>4.1757</v>
+      </c>
+      <c r="C47">
+        <v>4.2082249999999997</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0.61934188012003533</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>45224</v>
+      </c>
+      <c r="B48">
+        <v>4.2117810000000002</v>
+      </c>
+      <c r="C48">
+        <v>4.1858700000000004</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0.57470784724399182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>45225</v>
+      </c>
+      <c r="B49">
+        <v>4.2345819999999996</v>
+      </c>
+      <c r="C49">
+        <v>4.1899579999999998</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>0.58286995533601804</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>45226</v>
+      </c>
+      <c r="B50">
+        <v>4.2121510000000004</v>
+      </c>
+      <c r="C50">
+        <v>4.2290239999999999</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0.66086920062054388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>45229</v>
+      </c>
+      <c r="B51">
+        <v>4.2121570000000004</v>
+      </c>
+      <c r="C51">
+        <v>4.1937939999999996</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0.59052891977853639</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B52">
+        <v>4.2241499999999998</v>
+      </c>
+      <c r="C52">
+        <v>4.1874112999999999</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>0.57778520957330637</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B53">
+        <v>4.1901999999999999</v>
+      </c>
+      <c r="C53">
+        <v>4.1268853999999999</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>0.45693908966938279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>45232</v>
+      </c>
+      <c r="B54">
+        <v>4.2038000000000002</v>
+      </c>
+      <c r="C54">
+        <v>4.2038000000000002</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>0.61050691722688055</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>45233</v>
+      </c>
+      <c r="B55">
+        <v>4.2207499999999998</v>
+      </c>
+      <c r="C55">
+        <v>4.1815129999999998</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>0.56600865327213068</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>45236</v>
+      </c>
+      <c r="B56">
+        <v>4.1884699999999997</v>
+      </c>
+      <c r="C56">
+        <v>4.1971664000000004</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>0.59726225963410384</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>45237</v>
+      </c>
+      <c r="B57">
+        <v>4.1477500000000003</v>
+      </c>
+      <c r="C57">
+        <v>4.1794862999999998</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>0.56196214043697601</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>45238</v>
+      </c>
+      <c r="B58">
+        <v>4.1636439999999997</v>
+      </c>
+      <c r="C58">
+        <v>4.1636123999999999</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>0.53026828338168441</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B59">
+        <v>4.1436000000000002</v>
+      </c>
+      <c r="C59">
+        <v>4.1525917000000003</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>0.50826433410335703</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>45240</v>
+      </c>
+      <c r="B60">
+        <v>4.1526199999999998</v>
+      </c>
+      <c r="C60">
+        <v>4.1653395</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>0.53371661432242345</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>45243</v>
+      </c>
+      <c r="B61">
+        <v>4.1352060000000002</v>
+      </c>
+      <c r="C61">
+        <v>4.1250530000000003</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>0.45328051656081436</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B62">
+        <v>4.1337000000000002</v>
+      </c>
+      <c r="C62">
+        <v>4.0906209999999996</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>0.38453352394224977</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B63">
+        <v>4.0419010000000002</v>
+      </c>
+      <c r="C63">
+        <v>4.1189536999999996</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>0.44110264330110099</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B64">
+        <v>4.0411630000000001</v>
+      </c>
+      <c r="C64">
+        <v>4.0536820000000002</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>0.31078105065179135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>45247</v>
+      </c>
+      <c r="B65">
+        <v>4.0270520000000003</v>
+      </c>
+      <c r="C65">
+        <v>4.0253905999999997</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>0.2542943909466085</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>45250</v>
+      </c>
+      <c r="B66">
+        <v>4.0177690000000004</v>
+      </c>
+      <c r="C66">
+        <v>4.0088569999999999</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>0.22128337569456785</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>45251</v>
+      </c>
+      <c r="B67">
+        <v>3.9689000000000001</v>
+      </c>
+      <c r="C67">
+        <v>4.0179970000000003</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D74" si="3">(C67-$D$1)/($E$1-$D$1)</f>
+        <v>0.23953231599817185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B68">
+        <v>4.0037560000000001</v>
+      </c>
+      <c r="C68">
+        <v>4.0342444999999998</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="3"/>
+        <v>0.27197210347987705</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>45253</v>
+      </c>
+      <c r="B69">
+        <v>4.0081699999999998</v>
+      </c>
+      <c r="C69">
+        <v>3.9910321</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>0.18569414855915248</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>45254</v>
+      </c>
+      <c r="B70">
+        <v>4.0023999999999997</v>
+      </c>
+      <c r="C70">
+        <v>4.0195780000000001</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>0.24268894341830247</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B71">
+        <v>3.9830999999999999</v>
+      </c>
+      <c r="C71">
+        <v>4.0003824000000003</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="3"/>
+        <v>0.20436297421788205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B72">
+        <v>3.9641630000000001</v>
+      </c>
+      <c r="C72">
+        <v>3.9747914999999998</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="3"/>
+        <v>0.15326813762975397</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B73">
+        <v>3.9237899999999999</v>
+      </c>
+      <c r="C73">
+        <v>3.9811260000000002</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="3"/>
+        <v>0.16591561162900798</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="C74">
+        <v>3.8980269999999999</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BA4A82-9D01-472F-A067-101193E4DC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B21CF9-5CF5-4C3A-B236-6D526668367F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -17315,10 +17315,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:B41"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17789,6 +17789,61 @@
         <v>4.3848934000000002</v>
       </c>
     </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>45264</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43">
+        <v>4.3906660000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>45265</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44">
+        <v>4.4073023999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>45266</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45">
+        <v>4.4268093000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>45267</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46">
+        <v>4.4315147000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47">
+        <v>4.4290289999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17798,7 +17853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B21CF9-5CF5-4C3A-B236-6D526668367F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A8B8E3-F399-4738-BECC-90522780A731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -553,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -636,6 +636,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5707,7 +5708,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
+      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5737,7 +5738,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>8.9763008703234292E-3</v>
+        <v>9.3836103180217571E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7076,11 +7077,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D74" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D75" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E74" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E75" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7194,8 +7195,22 @@
       </c>
     </row>
     <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B75">
+        <v>3.9942069999999998</v>
+      </c>
       <c r="C75">
         <v>3.9550898000000001</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="34"/>
+        <v>3.9117199999999741E-2</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="35"/>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -8347,11 +8362,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I349"/>
+  <dimension ref="A1:I350"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A348" sqref="A348:B348"/>
+      <selection pane="bottomLeft" activeCell="B350" sqref="B350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8381,7 +8396,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.498755163458535E-2</v>
+        <v>-1.5040199474715852E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15033,11 +15048,11 @@
         <v>4.3919430000000004</v>
       </c>
       <c r="D346">
-        <f t="shared" ref="D346:D348" si="76">B346-C346</f>
+        <f t="shared" ref="D346:D349" si="76">B346-C346</f>
         <v>-4.8013000000000083E-2</v>
       </c>
       <c r="E346">
-        <f t="shared" ref="E346:E348" si="77">IF(D346&lt;0,1,0)</f>
+        <f t="shared" ref="E346:E349" si="77">IF(D346&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -15094,8 +15109,27 @@
       </c>
     </row>
     <row r="349" spans="1:7">
+      <c r="A349" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B349">
+        <v>4.3503699999999998</v>
+      </c>
       <c r="C349">
         <v>4.3836789999999999</v>
+      </c>
+      <c r="D349">
+        <f t="shared" si="76"/>
+        <v>-3.3309000000000033E-2</v>
+      </c>
+      <c r="E349">
+        <f t="shared" si="77"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="C350">
+        <v>4.3523664000000002</v>
       </c>
     </row>
   </sheetData>
@@ -17317,8 +17351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A40" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17782,8 +17816,8 @@
       <c r="A42" s="1">
         <v>45261</v>
       </c>
-      <c r="B42" t="s">
-        <v>56</v>
+      <c r="B42">
+        <v>4.3503699999999998</v>
       </c>
       <c r="C42">
         <v>4.3848934000000002</v>
@@ -17851,10 +17885,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17880,7 +17914,7 @@
       </c>
       <c r="E1">
         <f>AVERAGE(D2:D301)</f>
-        <v>1.8738013333333281</v>
+        <v>1.1523009999999942</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -17905,6 +17939,10 @@
         <f>B3-C3</f>
         <v>-9.4896000000005643E-2</v>
       </c>
+      <c r="E3" s="56">
+        <f>D3/C3</f>
+        <v>-1.2403911383454607E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
@@ -17920,6 +17958,10 @@
         <f>B4-C4</f>
         <v>3.2832009999999912</v>
       </c>
+      <c r="E4" s="56">
+        <f t="shared" ref="E4:E6" si="0">D4/C4</f>
+        <v>4.4024428508597724E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
@@ -17935,10 +17977,33 @@
         <f>B5-C5</f>
         <v>2.4330989999999986</v>
       </c>
+      <c r="E5" s="56">
+        <f t="shared" si="0"/>
+        <v>3.30912767980154E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B6">
+        <v>74.069999999999993</v>
+      </c>
       <c r="C6">
         <v>75.0822</v>
+      </c>
+      <c r="D6">
+        <f>B6-C6</f>
+        <v>-1.0122000000000071</v>
+      </c>
+      <c r="E6" s="56">
+        <f t="shared" si="0"/>
+        <v>-1.3481224577862758E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7">
+        <v>71.261700000000005</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A8B8E3-F399-4738-BECC-90522780A731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11170699-D069-4C29-9582-34B0EB7587D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -241,9 +241,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -553,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -637,6 +638,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5708,7 +5713,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5738,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>9.3836103180217571E-3</v>
+        <v>8.8470821804481348E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7077,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D75" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D76" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E75" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E76" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7213,7 +7218,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>45264</v>
+      </c>
+      <c r="B76">
+        <v>3.972988</v>
+      </c>
+      <c r="C76">
+        <v>4.003844</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="34"/>
+        <v>-3.0855999999999995E-2</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
     <row r="77" spans="1:7">
+      <c r="C77">
+        <v>3.9509294000000001</v>
+      </c>
       <c r="F77" s="8"/>
     </row>
   </sheetData>
@@ -8362,11 +8389,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I350"/>
+  <dimension ref="A1:I351"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B350" sqref="B350"/>
+      <selection pane="bottomLeft" activeCell="C352" sqref="C352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8396,7 +8423,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5040199474715852E-2</v>
+        <v>-1.5073541023498902E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15048,11 +15075,11 @@
         <v>4.3919430000000004</v>
       </c>
       <c r="D346">
-        <f t="shared" ref="D346:D349" si="76">B346-C346</f>
+        <f t="shared" ref="D346:D350" si="76">B346-C346</f>
         <v>-4.8013000000000083E-2</v>
       </c>
       <c r="E346">
-        <f t="shared" ref="E346:E349" si="77">IF(D346&lt;0,1,0)</f>
+        <f t="shared" ref="E346:E350" si="77">IF(D346&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -15128,8 +15155,27 @@
       </c>
     </row>
     <row r="350" spans="1:7">
+      <c r="A350" s="1">
+        <v>45264</v>
+      </c>
+      <c r="B350">
+        <v>4.3256899999999998</v>
+      </c>
       <c r="C350">
         <v>4.3523664000000002</v>
+      </c>
+      <c r="D350">
+        <f t="shared" si="76"/>
+        <v>-2.6676400000000378E-2</v>
+      </c>
+      <c r="E350">
+        <f t="shared" si="77"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="C351">
+        <v>4.3591449999999998</v>
       </c>
     </row>
   </sheetData>
@@ -17352,7 +17398,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17827,8 +17873,8 @@
       <c r="A43" s="1">
         <v>45264</v>
       </c>
-      <c r="B43" t="s">
-        <v>56</v>
+      <c r="B43">
+        <v>4.3256899999999998</v>
       </c>
       <c r="C43">
         <v>4.3906660000000004</v>
@@ -17885,16 +17931,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="58" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="10.21875" customWidth="1"/>
   </cols>
@@ -17903,7 +17949,7 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="57" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="54" t="s">
@@ -17913,97 +17959,146 @@
         <v>2</v>
       </c>
       <c r="E1">
-        <f>AVERAGE(D2:D301)</f>
-        <v>1.1523009999999942</v>
+        <f>AVERAGE(D5:D301)</f>
+        <v>0.88743433333332911</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>45257</v>
-      </c>
-      <c r="B2">
-        <v>74.860000999999997</v>
+        <v>45252</v>
+      </c>
+      <c r="B2" s="58">
+        <v>77.099997999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>45258</v>
-      </c>
-      <c r="B3">
-        <v>76.410004000000001</v>
-      </c>
-      <c r="C3">
-        <v>76.504900000000006</v>
-      </c>
-      <c r="D3">
-        <f>B3-C3</f>
-        <v>-9.4896000000005643E-2</v>
-      </c>
-      <c r="E3" s="56">
-        <f>D3/C3</f>
-        <v>-1.2403911383454607E-3</v>
+        <v>45253</v>
+      </c>
+      <c r="B3" s="58">
+        <v>76.349997999999999</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>45259</v>
-      </c>
-      <c r="B4">
-        <v>77.860000999999997</v>
-      </c>
-      <c r="C4">
-        <v>74.576800000000006</v>
-      </c>
-      <c r="D4">
-        <f>B4-C4</f>
-        <v>3.2832009999999912</v>
-      </c>
-      <c r="E4" s="56">
-        <f t="shared" ref="E4:E6" si="0">D4/C4</f>
-        <v>4.4024428508597724E-2</v>
+        <v>45254</v>
+      </c>
+      <c r="B4" s="58">
+        <v>75.540001000000004</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>45260</v>
-      </c>
-      <c r="B5">
-        <v>75.959998999999996</v>
+        <v>45257</v>
+      </c>
+      <c r="B5" s="58">
+        <v>74.860000999999997</v>
       </c>
       <c r="C5">
-        <v>73.526899999999998</v>
+        <v>75.922899999999998</v>
       </c>
       <c r="D5">
         <f>B5-C5</f>
+        <v>-1.0628990000000016</v>
+      </c>
+      <c r="E5" s="56">
+        <f>D5/C5</f>
+        <v>-1.3999715500856812E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B6" s="58">
+        <v>76.410004000000001</v>
+      </c>
+      <c r="C6">
+        <v>76.504900000000006</v>
+      </c>
+      <c r="D6">
+        <f>B6-C6</f>
+        <v>-9.4896000000005643E-2</v>
+      </c>
+      <c r="E6" s="56">
+        <f>D6/C6</f>
+        <v>-1.2403911383454607E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B7" s="58">
+        <v>77.860000999999997</v>
+      </c>
+      <c r="C7">
+        <v>74.576800000000006</v>
+      </c>
+      <c r="D7">
+        <f>B7-C7</f>
+        <v>3.2832009999999912</v>
+      </c>
+      <c r="E7" s="56">
+        <f t="shared" ref="E7:E10" si="0">D7/C7</f>
+        <v>4.4024428508597724E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B8" s="58">
+        <v>75.959998999999996</v>
+      </c>
+      <c r="C8">
+        <v>73.526899999999998</v>
+      </c>
+      <c r="D8">
+        <f>B8-C8</f>
         <v>2.4330989999999986</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E8" s="56">
         <f t="shared" si="0"/>
         <v>3.30912767980154E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
         <v>45261</v>
       </c>
-      <c r="B6">
+      <c r="B9" s="58">
         <v>74.069999999999993</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>75.0822</v>
       </c>
-      <c r="D6">
-        <f>B6-C6</f>
+      <c r="D9">
+        <f>B9-C9</f>
         <v>-1.0122000000000071</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E9" s="56">
         <f t="shared" si="0"/>
         <v>-1.3481224577862758E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="C7">
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>45264</v>
+      </c>
+      <c r="B10" s="58">
+        <v>73.040001000000004</v>
+      </c>
+      <c r="C10">
         <v>71.261700000000005</v>
+      </c>
+      <c r="D10">
+        <f>B10-C10</f>
+        <v>1.778300999999999</v>
+      </c>
+      <c r="E10" s="56">
+        <f t="shared" si="0"/>
+        <v>2.4954512732645991E-2</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11170699-D069-4C29-9582-34B0EB7587D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8161AE-A774-40CD-AED5-053F3FB8E36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -244,7 +244,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -638,10 +638,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>8.8470821804481348E-3</v>
+        <v>9.1640495441701279E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D76" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D81" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E76" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E81" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7238,10 +7238,105 @@
       </c>
     </row>
     <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>45265</v>
+      </c>
+      <c r="B77">
+        <v>3.9918</v>
+      </c>
       <c r="C77">
         <v>3.9509294000000001</v>
       </c>
+      <c r="D77">
+        <f t="shared" si="34"/>
+        <v>4.0870599999999868E-2</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
       <c r="F77" s="8"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>45266</v>
+      </c>
+      <c r="B78">
+        <v>4.0019920000000004</v>
+      </c>
+      <c r="C78">
+        <v>3.9952830000000001</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="34"/>
+        <v>6.7090000000002981E-3</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
+        <v>45267</v>
+      </c>
+      <c r="B79">
+        <v>4.0191990000000004</v>
+      </c>
+      <c r="C79">
+        <v>4.0261930000000001</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="34"/>
+        <v>-6.9939999999997227E-3</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B80">
+        <v>4.0191990000000004</v>
+      </c>
+      <c r="C80">
+        <v>4.0016084000000003</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="34"/>
+        <v>1.7590600000000123E-2</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B81">
+        <v>4.01816</v>
+      </c>
+      <c r="C81">
+        <v>4.0067434000000004</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="34"/>
+        <v>1.1416599999999555E-2</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="C82">
+        <v>4.0336319999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8389,11 +8484,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I351"/>
+  <dimension ref="A1:I356"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C352" sqref="C352"/>
+      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C357" sqref="C357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8423,7 +8518,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5073541023498902E-2</v>
+        <v>-1.547834496384496E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15075,11 +15170,11 @@
         <v>4.3919430000000004</v>
       </c>
       <c r="D346">
-        <f t="shared" ref="D346:D350" si="76">B346-C346</f>
+        <f t="shared" ref="D346:D351" si="76">B346-C346</f>
         <v>-4.8013000000000083E-2</v>
       </c>
       <c r="E346">
-        <f t="shared" ref="E346:E350" si="77">IF(D346&lt;0,1,0)</f>
+        <f t="shared" ref="E346:E351" si="77">IF(D346&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -15174,8 +15269,103 @@
       </c>
     </row>
     <row r="351" spans="1:7">
+      <c r="A351" s="1">
+        <v>45265</v>
+      </c>
+      <c r="B351">
+        <v>4.32761</v>
+      </c>
       <c r="C351">
         <v>4.3591449999999998</v>
+      </c>
+      <c r="D351">
+        <f t="shared" si="76"/>
+        <v>-3.1534999999999869E-2</v>
+      </c>
+      <c r="E351">
+        <f t="shared" si="77"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="1">
+        <v>45266</v>
+      </c>
+      <c r="B352">
+        <v>4.3194900000000001</v>
+      </c>
+      <c r="C352">
+        <v>4.3752639999999996</v>
+      </c>
+      <c r="D352">
+        <f t="shared" ref="D352:D355" si="79">B352-C352</f>
+        <v>-5.5773999999999546E-2</v>
+      </c>
+      <c r="E352">
+        <f t="shared" ref="E352:E355" si="80">IF(D352&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="1">
+        <v>45267</v>
+      </c>
+      <c r="B353">
+        <v>4.3272300000000001</v>
+      </c>
+      <c r="C353">
+        <v>4.3687243000000002</v>
+      </c>
+      <c r="D353">
+        <f t="shared" si="79"/>
+        <v>-4.1494300000000095E-2</v>
+      </c>
+      <c r="E353">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B354">
+        <v>4.3272300000000001</v>
+      </c>
+      <c r="C354">
+        <v>4.3779199999999996</v>
+      </c>
+      <c r="D354">
+        <f t="shared" si="79"/>
+        <v>-5.0689999999999458E-2</v>
+      </c>
+      <c r="E354">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B355">
+        <v>4.3254599999999996</v>
+      </c>
+      <c r="C355">
+        <v>4.3646349999999998</v>
+      </c>
+      <c r="D355">
+        <f t="shared" si="79"/>
+        <v>-3.9175000000000182E-2</v>
+      </c>
+      <c r="E355">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="C356">
+        <v>4.3341146000000004</v>
       </c>
     </row>
   </sheetData>
@@ -17398,7 +17588,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17884,8 +18074,8 @@
       <c r="A44" s="1">
         <v>45265</v>
       </c>
-      <c r="B44" t="s">
-        <v>56</v>
+      <c r="B44">
+        <v>4.32761</v>
       </c>
       <c r="C44">
         <v>4.4073023999999998</v>
@@ -17895,8 +18085,8 @@
       <c r="A45" s="1">
         <v>45266</v>
       </c>
-      <c r="B45" t="s">
-        <v>56</v>
+      <c r="B45">
+        <v>4.3194900000000001</v>
       </c>
       <c r="C45">
         <v>4.4268093000000004</v>
@@ -17906,8 +18096,8 @@
       <c r="A46" s="1">
         <v>45267</v>
       </c>
-      <c r="B46" t="s">
-        <v>56</v>
+      <c r="B46">
+        <v>4.3272300000000001</v>
       </c>
       <c r="C46">
         <v>4.4315147000000001</v>
@@ -17931,10 +18121,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17958,147 +18148,508 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1">
-        <f>AVERAGE(D5:D301)</f>
-        <v>0.88743433333332911</v>
+      <c r="E1" s="13">
+        <f>AVERAGE(D2:D301)</f>
+        <v>0.83787696153846047</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>45252</v>
+        <v>45233</v>
       </c>
       <c r="B2" s="58">
-        <v>77.099997999999999</v>
+        <v>82.459998999999996</v>
+      </c>
+      <c r="C2">
+        <v>79.287199999999999</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2" si="0">B2-C2</f>
+        <v>3.1727989999999977</v>
+      </c>
+      <c r="E2" s="56">
+        <f t="shared" ref="E2" si="1">D2/C2</f>
+        <v>4.0016534825293333E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>45253</v>
+        <v>45236</v>
       </c>
       <c r="B3" s="58">
-        <v>76.349997999999999</v>
+        <v>80.819999999999993</v>
+      </c>
+      <c r="C3">
+        <v>78.5989</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3" si="2">B3-C3</f>
+        <v>2.2210999999999927</v>
+      </c>
+      <c r="E3" s="56">
+        <f t="shared" ref="E3" si="3">D3/C3</f>
+        <v>2.8258665197604456E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>45254</v>
+        <v>45237</v>
       </c>
       <c r="B4" s="58">
-        <v>75.540001000000004</v>
+        <v>77.370002999999997</v>
+      </c>
+      <c r="C4">
+        <v>79.054299999999998</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4" si="4">B4-C4</f>
+        <v>-1.6842970000000008</v>
+      </c>
+      <c r="E4" s="56">
+        <f t="shared" ref="E4" si="5">D4/C4</f>
+        <v>-2.1305570980958668E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>45257</v>
+        <v>45238</v>
       </c>
       <c r="B5" s="58">
-        <v>74.860000999999997</v>
-      </c>
-      <c r="C5">
-        <v>75.922899999999998</v>
+        <v>75.330001999999993</v>
+      </c>
+      <c r="C5" s="58">
+        <v>77.506699999999995</v>
       </c>
       <c r="D5">
-        <f>B5-C5</f>
-        <v>-1.0628990000000016</v>
+        <f t="shared" ref="D5" si="6">B5-C5</f>
+        <v>-2.1766980000000018</v>
       </c>
       <c r="E5" s="56">
-        <f>D5/C5</f>
-        <v>-1.3999715500856812E-2</v>
+        <f t="shared" ref="E5" si="7">D5/C5</f>
+        <v>-2.8083997899536452E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>45258</v>
+        <v>45239</v>
       </c>
       <c r="B6" s="58">
-        <v>76.410004000000001</v>
+        <v>75.739998</v>
       </c>
       <c r="C6">
-        <v>76.504900000000006</v>
+        <v>76.052700000000002</v>
       </c>
       <c r="D6">
-        <f>B6-C6</f>
-        <v>-9.4896000000005643E-2</v>
+        <f t="shared" ref="D6" si="8">B6-C6</f>
+        <v>-0.31270200000000159</v>
       </c>
       <c r="E6" s="56">
-        <f>D6/C6</f>
-        <v>-1.2403911383454607E-3</v>
+        <f t="shared" ref="E6" si="9">D6/C6</f>
+        <v>-4.1116488960944398E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>45259</v>
+        <v>45240</v>
       </c>
       <c r="B7" s="58">
-        <v>77.860000999999997</v>
+        <v>77.169998000000007</v>
       </c>
       <c r="C7">
-        <v>74.576800000000006</v>
+        <v>75.321899999999999</v>
       </c>
       <c r="D7">
-        <f>B7-C7</f>
-        <v>3.2832009999999912</v>
+        <f t="shared" ref="D7" si="10">B7-C7</f>
+        <v>1.8480980000000073</v>
       </c>
       <c r="E7" s="56">
-        <f t="shared" ref="E7:E10" si="0">D7/C7</f>
-        <v>4.4024428508597724E-2</v>
+        <f t="shared" ref="E7" si="11">D7/C7</f>
+        <v>2.4535998162553085E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>45260</v>
+        <v>45244</v>
       </c>
       <c r="B8" s="58">
-        <v>75.959998999999996</v>
+        <v>78.260002</v>
       </c>
       <c r="C8">
-        <v>73.526899999999998</v>
+        <v>78.169200000000004</v>
       </c>
       <c r="D8">
-        <f>B8-C8</f>
-        <v>2.4330989999999986</v>
+        <f t="shared" ref="D8" si="12">B8-C8</f>
+        <v>9.0801999999996497E-2</v>
       </c>
       <c r="E8" s="56">
-        <f t="shared" si="0"/>
-        <v>3.30912767980154E-2</v>
+        <f t="shared" ref="E8" si="13">D8/C8</f>
+        <v>1.1616084084268036E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>45261</v>
+        <v>45245</v>
       </c>
       <c r="B9" s="58">
-        <v>74.069999999999993</v>
+        <v>78.260002</v>
       </c>
       <c r="C9">
-        <v>75.0822</v>
+        <v>76.024100000000004</v>
       </c>
       <c r="D9">
-        <f>B9-C9</f>
-        <v>-1.0122000000000071</v>
+        <f t="shared" ref="D9" si="14">B9-C9</f>
+        <v>2.2359019999999958</v>
       </c>
       <c r="E9" s="56">
-        <f t="shared" si="0"/>
-        <v>-1.3481224577862758E-2</v>
+        <f t="shared" ref="E9" si="15">D9/C9</f>
+        <v>2.9410436953544939E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B10" s="58">
+        <v>76.660004000000001</v>
+      </c>
+      <c r="C10">
+        <v>74.524199999999993</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10" si="16">B10-C10</f>
+        <v>2.1358040000000074</v>
+      </c>
+      <c r="E10" s="56">
+        <f t="shared" ref="E10" si="17">D10/C10</f>
+        <v>2.8659200635498368E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>45247</v>
+      </c>
+      <c r="B11" s="58">
+        <v>72.900002000000001</v>
+      </c>
+      <c r="C11">
+        <v>75.210099999999997</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11" si="18">B11-C11</f>
+        <v>-2.3100979999999964</v>
+      </c>
+      <c r="E11" s="56">
+        <f t="shared" ref="E11" si="19">D11/C11</f>
+        <v>-3.0715262976648037E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>45250</v>
+      </c>
+      <c r="B12" s="58">
+        <v>77.599997999999999</v>
+      </c>
+      <c r="C12">
+        <v>73.762</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12" si="20">B12-C12</f>
+        <v>3.8379979999999989</v>
+      </c>
+      <c r="E12" s="56">
+        <f t="shared" ref="E12" si="21">D12/C12</f>
+        <v>5.2032184593693215E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>45251</v>
+      </c>
+      <c r="B13" s="58">
+        <v>77.769997000000004</v>
+      </c>
+      <c r="C13">
+        <v>75.093100000000007</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13" si="22">B13-C13</f>
+        <v>2.6768969999999968</v>
+      </c>
+      <c r="E13" s="56">
+        <f t="shared" ref="E13" si="23">D13/C13</f>
+        <v>3.5647709310176252E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B14" s="58">
+        <v>77.099997999999999</v>
+      </c>
+      <c r="C14">
+        <v>72.002200000000002</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D15" si="24">B14-C14</f>
+        <v>5.0977979999999974</v>
+      </c>
+      <c r="E14" s="56">
+        <f t="shared" ref="E14:E15" si="25">D14/C14</f>
+        <v>7.0800586648741254E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>45253</v>
+      </c>
+      <c r="B15" s="58">
+        <v>76.349997999999999</v>
+      </c>
+      <c r="C15">
+        <v>70.452699999999993</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="24"/>
+        <v>5.8972980000000064</v>
+      </c>
+      <c r="E15" s="56">
+        <f t="shared" si="25"/>
+        <v>8.3705777067451026E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>45254</v>
+      </c>
+      <c r="B16" s="58">
+        <v>75.540001000000004</v>
+      </c>
+      <c r="C16">
+        <v>76.697699999999998</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16" si="26">B16-C16</f>
+        <v>-1.1576989999999938</v>
+      </c>
+      <c r="E16" s="56">
+        <f>D16/C16</f>
+        <v>-1.5094311824213684E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B17" s="58">
+        <v>74.860000999999997</v>
+      </c>
+      <c r="C17">
+        <v>75.922899999999998</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:D27" si="27">B17-C17</f>
+        <v>-1.0628990000000016</v>
+      </c>
+      <c r="E17" s="56">
+        <f>D17/C17</f>
+        <v>-1.3999715500856812E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B18" s="58">
+        <v>76.410004000000001</v>
+      </c>
+      <c r="C18">
+        <v>76.504900000000006</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="27"/>
+        <v>-9.4896000000005643E-2</v>
+      </c>
+      <c r="E18" s="56">
+        <f>D18/C18</f>
+        <v>-1.2403911383454607E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B19" s="58">
+        <v>77.860000999999997</v>
+      </c>
+      <c r="C19">
+        <v>74.576800000000006</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="27"/>
+        <v>3.2832009999999912</v>
+      </c>
+      <c r="E19" s="56">
+        <f t="shared" ref="E19:E27" si="28">D19/C19</f>
+        <v>4.4024428508597724E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B20" s="58">
+        <v>75.959998999999996</v>
+      </c>
+      <c r="C20">
+        <v>73.526899999999998</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="27"/>
+        <v>2.4330989999999986</v>
+      </c>
+      <c r="E20" s="56">
+        <f t="shared" si="28"/>
+        <v>3.30912767980154E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B21" s="58">
+        <v>74.069999999999993</v>
+      </c>
+      <c r="C21">
+        <v>75.0822</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="27"/>
+        <v>-1.0122000000000071</v>
+      </c>
+      <c r="E21" s="56">
+        <f t="shared" si="28"/>
+        <v>-1.3481224577862758E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
         <v>45264</v>
       </c>
-      <c r="B10" s="58">
+      <c r="B22" s="58">
         <v>73.040001000000004</v>
       </c>
-      <c r="C10">
+      <c r="C22">
         <v>71.261700000000005</v>
       </c>
-      <c r="D10">
-        <f>B10-C10</f>
+      <c r="D22">
+        <f t="shared" si="27"/>
         <v>1.778300999999999</v>
       </c>
-      <c r="E10" s="56">
-        <f t="shared" si="0"/>
+      <c r="E22" s="56">
+        <f t="shared" si="28"/>
         <v>2.4954512732645991E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>45265</v>
+      </c>
+      <c r="B23" s="58">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="C23">
+        <v>73.881699999999995</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="27"/>
+        <v>-1.5617000000000019</v>
+      </c>
+      <c r="E23" s="56">
+        <f t="shared" si="28"/>
+        <v>-2.113784604306617E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>45266</v>
+      </c>
+      <c r="B24" s="58">
+        <v>69.379997000000003</v>
+      </c>
+      <c r="C24">
+        <v>71.1126</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="27"/>
+        <v>-1.7326029999999975</v>
+      </c>
+      <c r="E24" s="56">
+        <f t="shared" si="28"/>
+        <v>-2.436421956165289E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>45267</v>
+      </c>
+      <c r="B25" s="58">
+        <v>69.339995999999999</v>
+      </c>
+      <c r="C25">
+        <v>73.859700000000004</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="27"/>
+        <v>-4.5197040000000044</v>
+      </c>
+      <c r="E25" s="56">
+        <f t="shared" si="28"/>
+        <v>-6.1193099890738852E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B26" s="58">
+        <v>71.23</v>
+      </c>
+      <c r="C26">
+        <v>71.077100000000002</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="27"/>
+        <v>0.15290000000000248</v>
+      </c>
+      <c r="E26" s="56">
+        <f t="shared" si="28"/>
+        <v>2.1511851215089313E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B27" s="58">
+        <v>71.319999999999993</v>
+      </c>
+      <c r="C27">
+        <v>68.771699999999996</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="27"/>
+        <v>2.5482999999999976</v>
+      </c>
+      <c r="E27" s="56">
+        <f t="shared" si="28"/>
+        <v>3.7054486074940676E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="C28">
+        <v>69.378200000000007</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8161AE-A774-40CD-AED5-053F3FB8E36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FF2561-8B77-4F08-9FE2-24A2F512CC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>9.1640495441701279E-3</v>
+        <v>8.9517526362174089E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D81" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D82" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E81" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E82" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7334,8 +7334,27 @@
       </c>
     </row>
     <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B82">
+        <v>4.0255999999999998</v>
+      </c>
       <c r="C82">
         <v>4.0336319999999999</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="34"/>
+        <v>-8.0320000000000391E-3</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="C83">
+        <v>4.0665373999999996</v>
       </c>
     </row>
   </sheetData>
@@ -8484,11 +8503,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I356"/>
+  <dimension ref="A1:I357"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C357" sqref="C357"/>
+      <selection pane="bottomLeft" activeCell="C358" sqref="C358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8518,7 +8537,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.547834496384496E-2</v>
+        <v>-1.5437038640003144E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15364,8 +15383,27 @@
       </c>
     </row>
     <row r="356" spans="1:5">
+      <c r="A356" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B356">
+        <v>4.3333000000000004</v>
+      </c>
       <c r="C356">
         <v>4.3341146000000004</v>
+      </c>
+      <c r="D356">
+        <f t="shared" ref="D356" si="81">B356-C356</f>
+        <v>-8.1459999999999866E-4</v>
+      </c>
+      <c r="E356">
+        <f t="shared" ref="E356" si="82">IF(D356&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="C357">
+        <v>4.3450116999999997</v>
       </c>
     </row>
   </sheetData>
@@ -17585,10 +17623,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A45" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18107,11 +18145,88 @@
       <c r="A47" s="1">
         <v>45268</v>
       </c>
-      <c r="B47" t="s">
-        <v>56</v>
+      <c r="B47">
+        <v>4.3272300000000001</v>
       </c>
       <c r="C47">
         <v>4.4290289999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B48">
+        <v>4.3254599999999996</v>
+      </c>
+      <c r="C48">
+        <v>4.3779199999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B49">
+        <v>4.3333000000000004</v>
+      </c>
+      <c r="C49">
+        <v>4.3646349999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50">
+        <v>4.3486159999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51">
+        <v>4.3421702</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>4.3236184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53">
+        <v>4.3164369999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54">
+        <v>4.2986716999999999</v>
       </c>
     </row>
   </sheetData>
@@ -18121,10 +18236,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18150,7 +18265,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>0.83787696153846047</v>
+        <v>0.77839266666666529</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -18449,7 +18564,7 @@
         <v>75.922899999999998</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:D27" si="27">B17-C17</f>
+        <f t="shared" ref="D17:D28" si="27">B17-C17</f>
         <v>-1.0628990000000016</v>
       </c>
       <c r="E17" s="56">
@@ -18491,7 +18606,7 @@
         <v>3.2832009999999912</v>
       </c>
       <c r="E19" s="56">
-        <f t="shared" ref="E19:E27" si="28">D19/C19</f>
+        <f t="shared" ref="E19:E28" si="28">D19/C19</f>
         <v>4.4024428508597724E-2</v>
       </c>
     </row>
@@ -18648,8 +18763,27 @@
       </c>
     </row>
     <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B28" s="58">
+        <v>68.610000999999997</v>
+      </c>
       <c r="C28">
         <v>69.378200000000007</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="27"/>
+        <v>-0.76819900000000985</v>
+      </c>
+      <c r="E28" s="56">
+        <f t="shared" si="28"/>
+        <v>-1.1072628001303144E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="C29">
+        <v>73.563900000000004</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A527EC64-8388-4F5B-AABD-9904BDA74974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D848E3-DD8E-4453-A907-E6A9ABA8CE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
+      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>7.4419019702844629E-3</v>
+        <v>7.1991583945130635E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D84" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D86" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E84" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E86" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7314,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>45271</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>45272</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>45273</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>45274</v>
       </c>
@@ -7390,9 +7390,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:8">
+      <c r="A85" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B85">
+        <v>3.9158750000000002</v>
+      </c>
       <c r="C85">
         <v>3.9826649999999999</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="34"/>
+        <v>-6.6789999999999683E-2</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <f>22000*0.77</f>
+        <v>16940</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B86">
+        <v>3.9757319999999998</v>
+      </c>
+      <c r="C86">
+        <v>3.9146914000000002</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="34"/>
+        <v>6.1040599999999667E-2</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="C87">
+        <v>3.9363999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -8541,11 +8583,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I359"/>
+  <dimension ref="A1:I361"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A357" sqref="A357:B358"/>
+      <selection pane="bottomLeft" activeCell="C362" sqref="C362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8575,7 +8617,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5599593045381277E-2</v>
+        <v>-1.5404146844571353E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15469,17 +15511,55 @@
         <v>4.3644843</v>
       </c>
       <c r="D358">
-        <f t="shared" ref="D358" si="83">B358-C358</f>
+        <f t="shared" ref="D358:D359" si="83">B358-C358</f>
         <v>-6.8474300000000099E-2</v>
       </c>
       <c r="E358">
-        <f t="shared" ref="E358" si="84">IF(D358&lt;0,1,0)</f>
+        <f t="shared" ref="E358:E359" si="84">IF(D358&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:5">
+      <c r="A359" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B359">
+        <v>4.3048000000000002</v>
+      </c>
       <c r="C359">
         <v>4.3034897000000001</v>
+      </c>
+      <c r="D359">
+        <f t="shared" si="83"/>
+        <v>1.3103000000000975E-3</v>
+      </c>
+      <c r="E359">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B360">
+        <v>4.3315799999999998</v>
+      </c>
+      <c r="C360">
+        <v>4.2939242999999996</v>
+      </c>
+      <c r="D360">
+        <f t="shared" ref="D360" si="85">B360-C360</f>
+        <v>3.7655700000000181E-2</v>
+      </c>
+      <c r="E360">
+        <f t="shared" ref="E360" si="86">IF(D360&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="C361">
+        <v>4.342352</v>
       </c>
     </row>
   </sheetData>
@@ -17702,7 +17782,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView topLeftCell="A45" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18276,8 +18356,8 @@
       <c r="A52" s="1">
         <v>45275</v>
       </c>
-      <c r="B52" t="s">
-        <v>56</v>
+      <c r="B52">
+        <v>4.3048000000000002</v>
       </c>
       <c r="C52">
         <v>4.3236184</v>
@@ -18287,8 +18367,8 @@
       <c r="A53" s="1">
         <v>45278</v>
       </c>
-      <c r="B53" t="s">
-        <v>56</v>
+      <c r="B53">
+        <v>4.3315799999999998</v>
       </c>
       <c r="C53">
         <v>4.3164369999999996</v>
@@ -18312,11 +18392,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18342,7 +18422,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>0.67279672413792913</v>
+        <v>0.80953567741935317</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -18641,7 +18721,7 @@
         <v>75.922899999999998</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:D30" si="27">B17-C17</f>
+        <f t="shared" ref="D17:D32" si="27">B17-C17</f>
         <v>-1.0628990000000016</v>
       </c>
       <c r="E17" s="56">
@@ -18683,7 +18763,7 @@
         <v>3.2832009999999912</v>
       </c>
       <c r="E19" s="56">
-        <f t="shared" ref="E19:E30" si="28">D19/C19</f>
+        <f t="shared" ref="E19:E32" si="28">D19/C19</f>
         <v>4.4024428508597724E-2</v>
       </c>
     </row>
@@ -18897,8 +18977,46 @@
       </c>
     </row>
     <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B31" s="58">
+        <v>71.430000000000007</v>
+      </c>
       <c r="C31">
         <v>68.003299999999996</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="27"/>
+        <v>3.426700000000011</v>
+      </c>
+      <c r="E31" s="56">
+        <f t="shared" si="28"/>
+        <v>5.0390201651978821E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B32" s="58">
+        <v>72.470000999999996</v>
+      </c>
+      <c r="C32">
+        <v>70.312200000000004</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="27"/>
+        <v>2.1578009999999921</v>
+      </c>
+      <c r="E32" s="56">
+        <f t="shared" si="28"/>
+        <v>3.0688856272453314E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33">
+        <v>66.346900000000005</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8381EA9-EEF4-4C4E-95E9-7D8F6D5B9882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E899B27-D06F-4027-98A6-1B6972ECB240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -22,6 +22,7 @@
     <sheet name="Normalization_example" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5709,11 +5710,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5744,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>7.328051901553609E-3</v>
+        <v>6.3780080371958975E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7083,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D87" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D96" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E87" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E96" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7452,8 +7453,179 @@
       </c>
     </row>
     <row r="88" spans="1:8">
+      <c r="A88" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B88">
+        <v>3.9370440000000002</v>
+      </c>
       <c r="C88">
         <v>4.0000270000000002</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="34"/>
+        <v>-6.2983000000000011E-2</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B89">
+        <v>3.9678070000000001</v>
+      </c>
+      <c r="C89">
+        <v>3.9410834000000001</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="34"/>
+        <v>2.6723599999999958E-2</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B90">
+        <v>3.9279000000000002</v>
+      </c>
+      <c r="C90">
+        <v>3.9743461999999998</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="34"/>
+        <v>-4.644619999999966E-2</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1">
+        <v>45286</v>
+      </c>
+      <c r="B91">
+        <v>3.9323109999999999</v>
+      </c>
+      <c r="C91">
+        <v>3.8880050000000002</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="34"/>
+        <v>4.4305999999999734E-2</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1">
+        <v>45287</v>
+      </c>
+      <c r="B92">
+        <v>3.9164859999999999</v>
+      </c>
+      <c r="C92">
+        <v>3.9465865999999998</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="34"/>
+        <v>-3.0100599999999922E-2</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B93">
+        <v>3.886606</v>
+      </c>
+      <c r="C93">
+        <v>3.9129738999999999</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="34"/>
+        <v>-2.6367899999999889E-2</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B94">
+        <v>3.9155280000000001</v>
+      </c>
+      <c r="C94">
+        <v>3.8855276000000001</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="34"/>
+        <v>3.0000400000000038E-2</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B95">
+        <v>3.9369000000000001</v>
+      </c>
+      <c r="C95">
+        <v>3.9294790000000002</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="34"/>
+        <v>7.4209999999998999E-3</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B96">
+        <v>3.9897559999999999</v>
+      </c>
+      <c r="C96">
+        <v>3.9566110000000001</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="34"/>
+        <v>3.3144999999999758E-2</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97">
+        <v>4.0088629999999998</v>
       </c>
     </row>
   </sheetData>
@@ -8602,11 +8774,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I362"/>
+  <dimension ref="A1:I371"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A361" sqref="A361:B361"/>
+      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A370" sqref="A370:B370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8636,7 +8808,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5424001992225321E-2</v>
+        <v>-1.4883479992414943E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15568,11 +15740,11 @@
         <v>4.2939242999999996</v>
       </c>
       <c r="D360">
-        <f t="shared" ref="D360:D361" si="85">B360-C360</f>
+        <f t="shared" ref="D360:D368" si="85">B360-C360</f>
         <v>3.7655700000000181E-2</v>
       </c>
       <c r="E360">
-        <f t="shared" ref="E360:E361" si="86">IF(D360&lt;0,1,0)</f>
+        <f t="shared" ref="E360:E368" si="86">IF(D360&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -15596,8 +15768,179 @@
       </c>
     </row>
     <row r="362" spans="1:5">
+      <c r="A362" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B362">
+        <v>4.32315</v>
+      </c>
       <c r="C362">
         <v>4.3047713999999999</v>
+      </c>
+      <c r="D362">
+        <f t="shared" si="85"/>
+        <v>1.8378600000000134E-2</v>
+      </c>
+      <c r="E362">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B363">
+        <v>4.34213</v>
+      </c>
+      <c r="C363">
+        <v>4.300592</v>
+      </c>
+      <c r="D363">
+        <f t="shared" si="85"/>
+        <v>4.1538000000000075E-2</v>
+      </c>
+      <c r="E363">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B364">
+        <v>4.3228</v>
+      </c>
+      <c r="C364">
+        <v>4.3351129999999998</v>
+      </c>
+      <c r="D364">
+        <f t="shared" si="85"/>
+        <v>-1.2312999999999796E-2</v>
+      </c>
+      <c r="E364">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="1">
+        <v>45286</v>
+      </c>
+      <c r="B365">
+        <v>4.3332100000000002</v>
+      </c>
+      <c r="C365">
+        <v>4.3285612999999996</v>
+      </c>
+      <c r="D365">
+        <f t="shared" si="85"/>
+        <v>4.6487000000006162E-3</v>
+      </c>
+      <c r="E365">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="1">
+        <v>45287</v>
+      </c>
+      <c r="B366">
+        <v>4.3247400000000003</v>
+      </c>
+      <c r="C366">
+        <v>4.3349209999999996</v>
+      </c>
+      <c r="D366">
+        <f t="shared" si="85"/>
+        <v>-1.0180999999999329E-2</v>
+      </c>
+      <c r="E366">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B367">
+        <v>4.3173000000000004</v>
+      </c>
+      <c r="C367">
+        <v>4.3282090000000002</v>
+      </c>
+      <c r="D367">
+        <f t="shared" si="85"/>
+        <v>-1.0908999999999835E-2</v>
+      </c>
+      <c r="E367">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B368">
+        <v>4.3335499999999998</v>
+      </c>
+      <c r="C368">
+        <v>4.3232400000000002</v>
+      </c>
+      <c r="D368">
+        <f t="shared" si="85"/>
+        <v>1.0309999999999597E-2</v>
+      </c>
+      <c r="E368">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B369">
+        <v>4.3479000000000001</v>
+      </c>
+      <c r="C369">
+        <v>4.3370059999999997</v>
+      </c>
+      <c r="D369">
+        <f t="shared" ref="D369:D370" si="87">B369-C369</f>
+        <v>1.0894000000000403E-2</v>
+      </c>
+      <c r="E369">
+        <f t="shared" ref="E369:E370" si="88">IF(D369&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B370">
+        <v>4.3661899999999996</v>
+      </c>
+      <c r="C370">
+        <v>4.3579197000000001</v>
+      </c>
+      <c r="D370">
+        <f t="shared" si="87"/>
+        <v>8.2702999999995086E-3</v>
+      </c>
+      <c r="E370">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="C371">
+        <v>4.4089565000000004</v>
       </c>
     </row>
   </sheetData>
@@ -15612,7 +15955,7 @@
   <dimension ref="A1:Q158"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
@@ -17817,11 +18160,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18428,8 +18771,8 @@
       <c r="A55" s="1">
         <v>45280</v>
       </c>
-      <c r="B55" t="s">
-        <v>56</v>
+      <c r="B55">
+        <v>4.32315</v>
       </c>
       <c r="C55">
         <v>4.2743950000000002</v>
@@ -18439,8 +18782,8 @@
       <c r="A56" s="1">
         <v>45281</v>
       </c>
-      <c r="B56" t="s">
-        <v>56</v>
+      <c r="B56">
+        <v>4.34213</v>
       </c>
       <c r="C56">
         <v>4.2607400000000002</v>
@@ -18450,8 +18793,8 @@
       <c r="A57" s="1">
         <v>45282</v>
       </c>
-      <c r="B57" t="s">
-        <v>56</v>
+      <c r="B57">
+        <v>4.3228</v>
       </c>
       <c r="C57">
         <v>4.2532515999999996</v>
@@ -18461,8 +18804,8 @@
       <c r="A58" s="1">
         <v>45286</v>
       </c>
-      <c r="B58" t="s">
-        <v>56</v>
+      <c r="B58">
+        <v>4.3332100000000002</v>
       </c>
       <c r="C58">
         <v>4.2502255</v>
@@ -18472,11 +18815,66 @@
       <c r="A59" s="1">
         <v>45287</v>
       </c>
-      <c r="B59" t="s">
-        <v>56</v>
+      <c r="B59">
+        <v>4.3247400000000003</v>
       </c>
       <c r="C59">
         <v>4.2410870000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B60">
+        <v>4.3173000000000004</v>
+      </c>
+      <c r="C60">
+        <v>4.2615129999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B61">
+        <v>4.3335499999999998</v>
+      </c>
+      <c r="C61">
+        <v>4.2706203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B62">
+        <v>4.33988</v>
+      </c>
+      <c r="C62">
+        <v>4.2816386</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B63">
+        <v>4.3661899999999996</v>
+      </c>
+      <c r="C63">
+        <v>4.2987776000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>45295</v>
+      </c>
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64">
+        <v>4.3172812</v>
       </c>
     </row>
   </sheetData>
@@ -18486,11 +18884,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18516,7 +18914,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>1.010272124999998</v>
+        <v>1.46522639473684</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -18815,7 +19213,7 @@
         <v>75.922899999999998</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:D33" si="27">B17-C17</f>
+        <f t="shared" ref="D17:D39" si="27">B17-C17</f>
         <v>-1.0628990000000016</v>
       </c>
       <c r="E17" s="56">
@@ -18857,7 +19255,7 @@
         <v>3.2832009999999912</v>
       </c>
       <c r="E19" s="56">
-        <f t="shared" ref="E19:E33" si="28">D19/C19</f>
+        <f t="shared" ref="E19:E39" si="28">D19/C19</f>
         <v>4.4024428508597724E-2</v>
       </c>
     </row>
@@ -19128,8 +19526,133 @@
       </c>
     </row>
     <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B34" s="58">
+        <v>73.440002000000007</v>
+      </c>
       <c r="C34">
         <v>71.343400000000003</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="27"/>
+        <v>2.0966020000000043</v>
+      </c>
+      <c r="E34" s="56">
+        <f t="shared" si="28"/>
+        <v>2.9387469618773483E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B35" s="58">
+        <v>73.889999000000003</v>
+      </c>
+      <c r="C35">
+        <v>70.639300000000006</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="27"/>
+        <v>3.2506989999999973</v>
+      </c>
+      <c r="E35" s="56">
+        <f t="shared" si="28"/>
+        <v>4.6018278776828153E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B36" s="58">
+        <v>73.559997999999993</v>
+      </c>
+      <c r="C36">
+        <v>71.102999999999994</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="27"/>
+        <v>2.4569979999999987</v>
+      </c>
+      <c r="E36" s="56">
+        <f t="shared" si="28"/>
+        <v>3.4555475858965144E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>45286</v>
+      </c>
+      <c r="B37" s="58">
+        <v>73.559997999999993</v>
+      </c>
+      <c r="C37">
+        <v>67.181200000000004</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="27"/>
+        <v>6.3787979999999891</v>
+      </c>
+      <c r="E37" s="56">
+        <f t="shared" si="28"/>
+        <v>9.4949152441456672E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>45287</v>
+      </c>
+      <c r="B38" s="58">
+        <v>74.110000999999997</v>
+      </c>
+      <c r="C38">
+        <v>67.802999999999997</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="27"/>
+        <v>6.3070009999999996</v>
+      </c>
+      <c r="E38" s="56">
+        <f t="shared" si="28"/>
+        <v>9.3019497662345324E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B39" s="58">
+        <v>71.769997000000004</v>
+      </c>
+      <c r="C39">
+        <v>68.910200000000003</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="27"/>
+        <v>2.8597970000000004</v>
+      </c>
+      <c r="E39" s="56">
+        <f t="shared" si="28"/>
+        <v>4.1500343925862937E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B40" s="58">
+        <v>71.650002000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B41" s="58">
+        <v>70.379997000000003</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C99260-C3D7-499F-BF0C-A008C0C76BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433E70FD-2F51-4F95-80B5-1900FB1B8D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
+      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>6.0150808701417745E-3</v>
+        <v>5.4042243663258768E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D97" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D98" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E97" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E98" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7642,8 +7642,30 @@
       </c>
     </row>
     <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B98">
+        <v>3.9674839999999998</v>
+      </c>
       <c r="C98">
         <v>4.0207220000000001</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="34"/>
+        <v>-5.3238000000000341E-2</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>45299</v>
+      </c>
+      <c r="C99">
+        <v>3.959533</v>
       </c>
     </row>
   </sheetData>
@@ -8792,11 +8814,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I372"/>
+  <dimension ref="A1:I373"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A371" sqref="A371:B371"/>
+      <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A372" sqref="A372:B372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8826,7 +8848,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5006380046489498E-2</v>
+        <v>-1.5065389803776589E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15929,11 +15951,11 @@
         <v>4.3370059999999997</v>
       </c>
       <c r="D369">
-        <f t="shared" ref="D369:D371" si="87">B369-C369</f>
+        <f t="shared" ref="D369:D372" si="87">B369-C369</f>
         <v>1.0894000000000403E-2</v>
       </c>
       <c r="E369">
-        <f t="shared" ref="E369:E371" si="88">IF(D369&lt;0,1,0)</f>
+        <f t="shared" ref="E369:E372" si="88">IF(D369&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -15976,8 +15998,30 @@
       </c>
     </row>
     <row r="372" spans="1:5">
+      <c r="A372" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B372">
+        <v>4.3437999999999999</v>
+      </c>
       <c r="C372">
         <v>4.3806989999999999</v>
+      </c>
+      <c r="D372">
+        <f t="shared" si="87"/>
+        <v>-3.6899000000000015E-2</v>
+      </c>
+      <c r="E372">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="1">
+        <v>45299</v>
+      </c>
+      <c r="C373">
+        <v>4.3538885000000001</v>
       </c>
     </row>
   </sheetData>
@@ -18200,8 +18244,8 @@
   <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66:B69"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18918,8 +18962,8 @@
       <c r="A65" s="1">
         <v>45296</v>
       </c>
-      <c r="B65" t="s">
-        <v>56</v>
+      <c r="B65">
+        <v>4.3437999999999999</v>
       </c>
       <c r="C65">
         <v>4.3904269999999999</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433E70FD-2F51-4F95-80B5-1900FB1B8D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F375007B-C2E2-43A0-B587-33CD02D39BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>5.4042243663258768E-3</v>
+        <v>5.5814460962990897E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D98" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D100" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E98" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E100" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7664,8 +7664,43 @@
       <c r="A99" s="1">
         <v>45299</v>
       </c>
+      <c r="B99">
+        <v>3.969392</v>
+      </c>
       <c r="C99">
         <v>3.959533</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="34"/>
+        <v>9.8590000000000622E-3</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B100">
+        <v>3.9553799999999999</v>
+      </c>
+      <c r="C100">
+        <v>3.9368856000000001</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="34"/>
+        <v>1.84943999999998E-2</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="C101">
+        <v>3.9585032</v>
       </c>
     </row>
   </sheetData>
@@ -8814,11 +8849,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I373"/>
+  <dimension ref="A1:I375"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A372" sqref="A372:B372"/>
+      <selection pane="bottomLeft" activeCell="C376" sqref="C376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8848,7 +8883,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5065389803776589E-2</v>
+        <v>-1.5029419617161165E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15951,11 +15986,11 @@
         <v>4.3370059999999997</v>
       </c>
       <c r="D369">
-        <f t="shared" ref="D369:D372" si="87">B369-C369</f>
+        <f t="shared" ref="D369:D374" si="87">B369-C369</f>
         <v>1.0894000000000403E-2</v>
       </c>
       <c r="E369">
-        <f t="shared" ref="E369:E372" si="88">IF(D369&lt;0,1,0)</f>
+        <f t="shared" ref="E369:E374" si="88">IF(D369&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -16020,8 +16055,43 @@
       <c r="A373" s="1">
         <v>45299</v>
       </c>
+      <c r="B373">
+        <v>4.3431499999999996</v>
+      </c>
       <c r="C373">
         <v>4.3538885000000001</v>
+      </c>
+      <c r="D373">
+        <f t="shared" si="87"/>
+        <v>-1.0738500000000428E-2</v>
+      </c>
+      <c r="E373">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B374">
+        <v>4.3311999999999999</v>
+      </c>
+      <c r="C374">
+        <v>4.3371753999999996</v>
+      </c>
+      <c r="D374">
+        <f t="shared" si="87"/>
+        <v>-5.975399999999631E-3</v>
+      </c>
+      <c r="E374">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="C375">
+        <v>4.3087369999999998</v>
       </c>
     </row>
   </sheetData>
@@ -18243,9 +18313,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18973,8 +19043,8 @@
       <c r="A66" s="1">
         <v>45299</v>
       </c>
-      <c r="B66" t="s">
-        <v>56</v>
+      <c r="B66">
+        <v>4.3431499999999996</v>
       </c>
       <c r="C66">
         <v>4.4120216000000001</v>
@@ -18984,8 +19054,8 @@
       <c r="A67" s="1">
         <v>45300</v>
       </c>
-      <c r="B67" t="s">
-        <v>56</v>
+      <c r="B67">
+        <v>4.3311999999999999</v>
       </c>
       <c r="C67">
         <v>4.426336</v>
@@ -19020,11 +19090,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19050,7 +19120,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>1.46522639473684</v>
+        <v>1.5397344550962966</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -19782,6 +19852,17 @@
       <c r="B40" s="58">
         <v>71.650002000000001</v>
       </c>
+      <c r="C40">
+        <v>71.055977272727276</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:D46" si="29">B40-C40</f>
+        <v>0.59402472727272482</v>
+      </c>
+      <c r="E40" s="56">
+        <f t="shared" ref="E40:E46" si="30">D40/C40</f>
+        <v>8.3599543637650243E-3</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1">
@@ -19789,6 +19870,117 @@
       </c>
       <c r="B41" s="58">
         <v>70.379997000000003</v>
+      </c>
+      <c r="C41">
+        <v>70.808298966942161</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="29"/>
+        <v>-0.42830196694215772</v>
+      </c>
+      <c r="E41" s="56">
+        <f t="shared" si="30"/>
+        <v>-6.0487537928586091E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B42" s="58">
+        <v>72.699996999999996</v>
+      </c>
+      <c r="C42">
+        <v>70.63700346543952</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="29"/>
+        <v>2.0629935345604764</v>
+      </c>
+      <c r="E42" s="56">
+        <f t="shared" si="30"/>
+        <v>2.9205564128577943E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>45295</v>
+      </c>
+      <c r="B43" s="58">
+        <v>72.190002000000007</v>
+      </c>
+      <c r="C43">
+        <v>70.505644532050397</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="29"/>
+        <v>1.6843574679496101</v>
+      </c>
+      <c r="E43" s="56">
+        <f t="shared" si="30"/>
+        <v>2.3889682579725034E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B44" s="58">
+        <v>73.809997999999993</v>
+      </c>
+      <c r="C44">
+        <v>70.297619283507231</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="29"/>
+        <v>3.512378716492762</v>
+      </c>
+      <c r="E44" s="56">
+        <f t="shared" si="30"/>
+        <v>4.9964404944177296E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>45299</v>
+      </c>
+      <c r="B45" s="58">
+        <v>70.769997000000004</v>
+      </c>
+      <c r="C45">
+        <v>67.556899999999999</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="29"/>
+        <v>3.2130970000000048</v>
+      </c>
+      <c r="E45" s="56">
+        <f t="shared" si="30"/>
+        <v>4.7561344585083161E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B46" s="58">
+        <v>72.239998</v>
+      </c>
+      <c r="C46">
+        <v>69.269099999999995</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="29"/>
+        <v>2.9708980000000054</v>
+      </c>
+      <c r="E46" s="56">
+        <f t="shared" si="30"/>
+        <v>4.2889224776992994E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="C47">
+        <v>67.362399999999994</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D73DD1-D51F-4A37-8A3D-BDCD7762A130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39562A46-890C-4044-A31C-597EE26BE489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -9043,7 +9043,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C386" sqref="C386"/>
+      <selection pane="bottomLeft" activeCell="A383" sqref="A383:B384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18693,9 +18693,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76:B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19533,8 +19533,8 @@
       <c r="A76" s="1">
         <v>45313</v>
       </c>
-      <c r="B76" t="s">
-        <v>56</v>
+      <c r="B76">
+        <v>4.3518499999999998</v>
       </c>
       <c r="C76">
         <v>4.3526397000000001</v>
@@ -19544,8 +19544,8 @@
       <c r="A77" s="1">
         <v>45314</v>
       </c>
-      <c r="B77" t="s">
-        <v>56</v>
+      <c r="B77">
+        <v>4.3606199999999999</v>
       </c>
       <c r="C77">
         <v>4.3483890000000001</v>
@@ -19582,7 +19582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39562A46-890C-4044-A31C-597EE26BE489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A97C6A6-1964-434C-8AEB-C22BC38F8618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -18695,7 +18695,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A76" sqref="A76:B77"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A97C6A6-1964-434C-8AEB-C22BC38F8618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5830B41A-B414-4448-ACB1-3EFDAC075821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
+      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>3.8261015003083387E-3</v>
+        <v>3.6344005775782594E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7880,17 +7880,36 @@
         <v>4.0111302999999996</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D110" si="36">B110-C110</f>
+        <f t="shared" ref="D110:D111" si="36">B110-C110</f>
         <v>-2.655299999999805E-3</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110" si="37">IF(D110&lt;0,1,0)</f>
+        <f t="shared" ref="E110:E111" si="37">IF(D110&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B111">
+        <v>4.0084749999999998</v>
+      </c>
       <c r="C111">
         <v>4.0257360000000002</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="36"/>
+        <v>-1.7261000000000415E-2</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="C112">
+        <v>3.9488927999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9039,11 +9058,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I385"/>
+  <dimension ref="A1:I386"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A383" sqref="A383:B384"/>
+      <pane ySplit="1" topLeftCell="A375" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C387" sqref="C387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9073,7 +9092,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4638148869976801E-2</v>
+        <v>-1.4625138065627902E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16398,14 +16417,14 @@
         <v>45309</v>
       </c>
       <c r="B381">
-        <v>4.3937999999999997</v>
+        <v>4.3569000000000004</v>
       </c>
       <c r="C381">
         <v>4.4122440000000003</v>
       </c>
       <c r="D381">
         <f t="shared" si="87"/>
-        <v>-1.8444000000000571E-2</v>
+        <v>-5.5343999999999838E-2</v>
       </c>
       <c r="E381">
         <f t="shared" si="88"/>
@@ -16417,14 +16436,14 @@
         <v>45310</v>
       </c>
       <c r="B382">
-        <v>4.3827100000000003</v>
+        <v>4.3937999999999997</v>
       </c>
       <c r="C382">
         <v>4.4003389999999998</v>
       </c>
       <c r="D382">
         <f t="shared" si="87"/>
-        <v>-1.7628999999999451E-2</v>
+        <v>-6.5390000000000725E-3</v>
       </c>
       <c r="E382">
         <f t="shared" si="88"/>
@@ -16436,14 +16455,14 @@
         <v>45313</v>
       </c>
       <c r="B383">
-        <v>4.3518499999999998</v>
+        <v>4.3827100000000003</v>
       </c>
       <c r="C383">
         <v>4.4054026999999998</v>
       </c>
       <c r="D383">
         <f t="shared" si="87"/>
-        <v>-5.3552700000000009E-2</v>
+        <v>-2.2692699999999455E-2</v>
       </c>
       <c r="E383">
         <f t="shared" si="88"/>
@@ -16455,23 +16474,42 @@
         <v>45314</v>
       </c>
       <c r="B384">
-        <v>4.3606199999999999</v>
+        <v>4.3518499999999998</v>
       </c>
       <c r="C384">
         <v>4.3492259999999998</v>
       </c>
       <c r="D384">
-        <f t="shared" ref="D384" si="89">B384-C384</f>
-        <v>1.1394000000000126E-2</v>
+        <f>B384-C384</f>
+        <v>2.6239999999999597E-3</v>
       </c>
       <c r="E384">
-        <f t="shared" ref="E384" si="90">IF(D384&lt;0,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="3:3">
+        <f t="shared" ref="E384:E385" si="89">IF(D384&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B385">
+        <v>4.3606199999999999</v>
+      </c>
       <c r="C385">
         <v>4.3665419999999999</v>
+      </c>
+      <c r="D385">
+        <f>B385-C385</f>
+        <v>-5.9219999999999828E-3</v>
+      </c>
+      <c r="E385">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="C386">
+        <v>4.3465214000000003</v>
       </c>
     </row>
   </sheetData>
@@ -18693,9 +18731,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19580,11 +19618,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19610,7 +19648,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>2.3324774814424245</v>
+        <v>2.3840313835595239</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20346,11 +20384,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D56" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D57" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E56" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E57" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -20659,8 +20697,27 @@
       </c>
     </row>
     <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B57" s="58">
+        <v>75.089995999999999</v>
+      </c>
       <c r="C57">
         <v>69.870500000000007</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="29"/>
+        <v>5.2194959999999924</v>
+      </c>
+      <c r="E57" s="56">
+        <f t="shared" si="30"/>
+        <v>7.4702428063345649E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="C58">
+        <v>65.425600000000003</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D83813-7687-4172-89BF-A40E6F64BF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFCD6D8-8287-4498-8511-23E16507FDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5721,7 +5721,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C123" sqref="C123"/>
+      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>4.8822813627800755E-3</v>
+        <v>4.540870773005033E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7888,11 +7888,11 @@
         <v>4.0111302999999996</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D110:D121" si="36">B110-C110</f>
+        <f t="shared" ref="D110:D122" si="36">B110-C110</f>
         <v>-2.655299999999805E-3</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110:E121" si="37">IF(D110&lt;0,1,0)</f>
+        <f t="shared" ref="E110:E122" si="37">IF(D110&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8106,8 +8106,22 @@
       </c>
     </row>
     <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B122">
+        <v>4.0288430000000002</v>
+      </c>
       <c r="C122">
         <v>4.0652714000000003</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="36"/>
+        <v>-3.6428400000000138E-2</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="37"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9256,10 +9270,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I396"/>
+  <dimension ref="A1:I397"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C397" sqref="C397"/>
     </sheetView>
   </sheetViews>
@@ -9290,7 +9304,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4122411718784556E-2</v>
+        <v>-1.4221162575192695E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16792,11 +16806,11 @@
         <v>4.3967400000000003</v>
       </c>
       <c r="D390">
-        <f t="shared" ref="D390:D395" si="91">B390-C390</f>
+        <f t="shared" ref="D390:D396" si="91">B390-C390</f>
         <v>-4.8920000000000741E-2</v>
       </c>
       <c r="E390">
-        <f t="shared" ref="E390:E395" si="92">IF(D390&lt;0,1,0)</f>
+        <f t="shared" ref="E390:E396" si="92">IF(D390&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -16896,8 +16910,27 @@
       </c>
     </row>
     <row r="396" spans="1:5">
+      <c r="A396" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B396">
+        <v>4.3412800000000002</v>
+      </c>
       <c r="C396">
         <v>4.3944089999999996</v>
+      </c>
+      <c r="D396">
+        <f t="shared" si="91"/>
+        <v>-5.3128999999999316E-2</v>
+      </c>
+      <c r="E396">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="C397">
+        <v>4.391578</v>
       </c>
     </row>
   </sheetData>
@@ -19117,11 +19150,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B91" sqref="B91:B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20103,11 +20136,66 @@
       <c r="A89" s="1">
         <v>45330</v>
       </c>
-      <c r="B89" t="s">
-        <v>56</v>
+      <c r="B89">
+        <v>4.3412800000000002</v>
       </c>
       <c r="C89">
         <v>4.3377175000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B90" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90">
+        <v>4.3596640000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>45334</v>
+      </c>
+      <c r="B91" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91">
+        <v>4.3612045999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>45335</v>
+      </c>
+      <c r="B92" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92">
+        <v>4.356179</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>45336</v>
+      </c>
+      <c r="B93" t="s">
+        <v>56</v>
+      </c>
+      <c r="C93">
+        <v>4.3519936000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>45337</v>
+      </c>
+      <c r="B94" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94">
+        <v>4.3406463000000004</v>
       </c>
     </row>
   </sheetData>
@@ -20117,11 +20205,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20147,7 +20235,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>3.3246902193838381</v>
+        <v>3.39023515640796</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20883,11 +20971,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D67" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D68" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E67" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E68" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -21405,8 +21493,27 @@
       </c>
     </row>
     <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B68" s="58">
+        <v>76.220000999999996</v>
+      </c>
       <c r="C68">
         <v>68.503799999999998</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="29"/>
+        <v>7.7162009999999981</v>
+      </c>
+      <c r="E68" s="56">
+        <f t="shared" si="30"/>
+        <v>0.1126390214849395</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="C69">
+        <v>68.205500000000001</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFCD6D8-8287-4498-8511-23E16507FDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CCF77B-FF91-4614-B98B-27A32C11A2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5717,11 +5717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
+      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>4.540870773005033E-3</v>
+        <v>4.306002979783681E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -8122,6 +8122,30 @@
       <c r="E122">
         <f t="shared" si="37"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B123">
+        <v>4.0109000000000004</v>
+      </c>
+      <c r="C123">
+        <v>4.0350130000000002</v>
+      </c>
+      <c r="D123">
+        <f t="shared" ref="D123" si="38">B123-C123</f>
+        <v>-2.4112999999999829E-2</v>
+      </c>
+      <c r="E123">
+        <f t="shared" ref="E123" si="39">IF(D123&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="C124">
+        <v>4.0000076</v>
       </c>
     </row>
   </sheetData>
@@ -9270,11 +9294,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I397"/>
+  <dimension ref="A1:I398"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C397" sqref="C397"/>
+      <selection pane="bottomLeft" activeCell="A397" sqref="A397:B397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9304,7 +9328,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4221162575192695E-2</v>
+        <v>-1.4358250548487661E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16806,11 +16830,11 @@
         <v>4.3967400000000003</v>
       </c>
       <c r="D390">
-        <f t="shared" ref="D390:D396" si="91">B390-C390</f>
+        <f t="shared" ref="D390:D397" si="91">B390-C390</f>
         <v>-4.8920000000000741E-2</v>
       </c>
       <c r="E390">
-        <f t="shared" ref="E390:E396" si="92">IF(D390&lt;0,1,0)</f>
+        <f t="shared" ref="E390:E397" si="92">IF(D390&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -16929,8 +16953,27 @@
       </c>
     </row>
     <row r="397" spans="1:5">
+      <c r="A397" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B397">
+        <v>4.3230700000000004</v>
+      </c>
       <c r="C397">
         <v>4.391578</v>
+      </c>
+      <c r="D397">
+        <f t="shared" si="91"/>
+        <v>-6.8507999999999569E-2</v>
+      </c>
+      <c r="E397">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="C398">
+        <v>4.2715180000000004</v>
       </c>
     </row>
   </sheetData>
@@ -19152,9 +19195,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B91" sqref="B91:B94"/>
+      <selection pane="bottomLeft" activeCell="A90" sqref="A90:B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20147,8 +20190,8 @@
       <c r="A90" s="1">
         <v>45331</v>
       </c>
-      <c r="B90" t="s">
-        <v>56</v>
+      <c r="B90">
+        <v>4.3230700000000004</v>
       </c>
       <c r="C90">
         <v>4.3596640000000004</v>
@@ -20205,11 +20248,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20235,7 +20278,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>3.39023515640796</v>
+        <v>3.4673566394019608</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20971,11 +21014,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D68" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D69" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E68" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E69" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -21512,8 +21555,27 @@
       </c>
     </row>
     <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B69" s="58">
+        <v>76.839995999999999</v>
+      </c>
       <c r="C69">
         <v>68.205500000000001</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="29"/>
+        <v>8.6344959999999986</v>
+      </c>
+      <c r="E69" s="56">
+        <f t="shared" si="30"/>
+        <v>0.12659530389777948</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="C70">
+        <v>68.694999999999993</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CCF77B-FF91-4614-B98B-27A32C11A2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA89485B-8AC1-4CB9-BFDC-687C674DE1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>4.425458 , 4.4274306, 4.4089894, 4.3910556, 4.3848934</t>
+  </si>
+  <si>
+    <t>Day + 1 Pred. WT</t>
   </si>
 </sst>
 </file>
@@ -5717,11 +5720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5751,10 +5754,10 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>4.306002979783681E-3</v>
+        <v>4.2400972645008925E-3</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>2</v>
@@ -7934,7 +7937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:6">
       <c r="A113" s="1">
         <v>45317</v>
       </c>
@@ -7953,7 +7956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:6">
       <c r="A114" s="1">
         <v>45320</v>
       </c>
@@ -7972,7 +7975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:6">
       <c r="A115" s="1">
         <v>45321</v>
       </c>
@@ -7991,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:6">
       <c r="A116" s="1">
         <v>45322</v>
       </c>
@@ -8010,7 +8013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:6">
       <c r="A117" s="1">
         <v>45323</v>
       </c>
@@ -8029,7 +8032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:6">
       <c r="A118" s="1">
         <v>45324</v>
       </c>
@@ -8048,7 +8051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:6">
       <c r="A119" s="1">
         <v>45327</v>
       </c>
@@ -8067,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:6">
       <c r="A120" s="1">
         <v>45328</v>
       </c>
@@ -8086,7 +8089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:6">
       <c r="A121" s="1">
         <v>45329</v>
       </c>
@@ -8105,7 +8108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:6">
       <c r="A122" s="1">
         <v>45330</v>
       </c>
@@ -8124,7 +8127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:6">
       <c r="A123" s="1">
         <v>45331</v>
       </c>
@@ -8135,17 +8138,39 @@
         <v>4.0350130000000002</v>
       </c>
       <c r="D123">
-        <f t="shared" ref="D123" si="38">B123-C123</f>
+        <f t="shared" ref="D123:D124" si="38">B123-C123</f>
         <v>-2.4112999999999829E-2</v>
       </c>
       <c r="E123">
-        <f t="shared" ref="E123" si="39">IF(D123&lt;0,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <f t="shared" ref="E123:E124" si="39">IF(D123&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>45334</v>
+      </c>
+      <c r="B124">
+        <v>4.0109000000000004</v>
+      </c>
       <c r="C124">
-        <v>4.0000076</v>
+        <v>4.0147003999999997</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="38"/>
+        <v>-3.8003999999993709E-3</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="C125">
+        <v>4.0397983000000002</v>
+      </c>
+      <c r="F125">
+        <v>3.9766759999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9294,11 +9319,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I398"/>
+  <dimension ref="A1:I399"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A397" sqref="A397:B397"/>
+      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F400" sqref="F400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9328,7 +9353,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4358250548487661E-2</v>
+        <v>-1.4235193242320187E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16724,7 +16749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:6">
       <c r="A385" s="1">
         <v>45315</v>
       </c>
@@ -16743,7 +16768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:6">
       <c r="A386" s="1">
         <v>45316</v>
       </c>
@@ -16762,7 +16787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:6">
       <c r="A387" s="1">
         <v>45317</v>
       </c>
@@ -16781,7 +16806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:6">
       <c r="A388" s="1">
         <v>45320</v>
       </c>
@@ -16800,7 +16825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:6">
       <c r="A389" s="1">
         <v>45321</v>
       </c>
@@ -16819,7 +16844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:6">
       <c r="A390" s="1">
         <v>45322</v>
       </c>
@@ -16830,15 +16855,15 @@
         <v>4.3967400000000003</v>
       </c>
       <c r="D390">
-        <f t="shared" ref="D390:D397" si="91">B390-C390</f>
+        <f t="shared" ref="D390:D398" si="91">B390-C390</f>
         <v>-4.8920000000000741E-2</v>
       </c>
       <c r="E390">
-        <f t="shared" ref="E390:E397" si="92">IF(D390&lt;0,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
+        <f t="shared" ref="E390:E398" si="92">IF(D390&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
       <c r="A391" s="1">
         <v>45323</v>
       </c>
@@ -16857,7 +16882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:6">
       <c r="A392" s="1">
         <v>45324</v>
       </c>
@@ -16876,7 +16901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:6">
       <c r="A393" s="1">
         <v>45327</v>
       </c>
@@ -16895,7 +16920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:6">
       <c r="A394" s="1">
         <v>45328</v>
       </c>
@@ -16914,7 +16939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:6">
       <c r="A395" s="1">
         <v>45329</v>
       </c>
@@ -16933,7 +16958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:6">
       <c r="A396" s="1">
         <v>45330</v>
       </c>
@@ -16952,28 +16977,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:6">
       <c r="A397" s="1">
         <v>45331</v>
       </c>
       <c r="B397">
-        <v>4.3230700000000004</v>
+        <v>4.3489820000000003</v>
       </c>
       <c r="C397">
         <v>4.391578</v>
       </c>
       <c r="D397">
         <f t="shared" si="91"/>
-        <v>-6.8507999999999569E-2</v>
+        <v>-4.2595999999999634E-2</v>
       </c>
       <c r="E397">
         <f t="shared" si="92"/>
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:6">
+      <c r="A398" s="1">
+        <v>45334</v>
+      </c>
+      <c r="B398">
+        <v>4.3230700000000004</v>
+      </c>
       <c r="C398">
-        <v>4.2715180000000004</v>
+        <v>4.3144865000000001</v>
+      </c>
+      <c r="D398">
+        <f t="shared" ref="D398" si="93">B398-C398</f>
+        <v>8.5835000000002992E-3</v>
+      </c>
+      <c r="E398">
+        <f t="shared" ref="E398" si="94">IF(D398&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="C399">
+        <v>4.3390446000000003</v>
+      </c>
+      <c r="F399">
+        <v>4.3574833999999996</v>
       </c>
     </row>
   </sheetData>
@@ -19197,7 +19244,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A90" sqref="A90:B90"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20191,7 +20238,7 @@
         <v>45331</v>
       </c>
       <c r="B90">
-        <v>4.3230700000000004</v>
+        <v>4.3489820000000003</v>
       </c>
       <c r="C90">
         <v>4.3596640000000004</v>
@@ -20201,8 +20248,8 @@
       <c r="A91" s="1">
         <v>45334</v>
       </c>
-      <c r="B91" t="s">
-        <v>56</v>
+      <c r="B91">
+        <v>4.3230700000000004</v>
       </c>
       <c r="C91">
         <v>4.3612045999999998</v>
@@ -20248,11 +20295,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20278,7 +20325,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>3.4673566394019608</v>
+        <v>3.5363079634685994</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -21014,11 +21061,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D69" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D70" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E69" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E70" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -21478,7 +21525,7 @@
         <v>5.8346692007637577E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>45327</v>
       </c>
@@ -21497,7 +21544,7 @@
         <v>7.3422814733532196E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>45328</v>
       </c>
@@ -21516,7 +21563,7 @@
         <v>9.6316072822546547E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>45329</v>
       </c>
@@ -21535,7 +21582,7 @@
         <v>9.1318521386060253E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>45330</v>
       </c>
@@ -21554,7 +21601,7 @@
         <v>0.1126390214849395</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>45331</v>
       </c>
@@ -21573,9 +21620,34 @@
         <v>0.12659530389777948</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>45334</v>
+      </c>
+      <c r="B70" s="58">
+        <v>76.919998000000007</v>
+      </c>
       <c r="C70">
         <v>68.694999999999993</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="29"/>
+        <v>8.2249980000000136</v>
+      </c>
+      <c r="E70" s="56">
+        <f t="shared" si="30"/>
+        <v>0.11973212024164807</v>
+      </c>
+      <c r="F70">
+        <v>68.186099999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="C71">
+        <v>67.505200000000002</v>
+      </c>
+      <c r="F71">
+        <v>67.919700000000006</v>
       </c>
     </row>
   </sheetData>
